--- a/backtest_df.xlsx
+++ b/backtest_df.xlsx
@@ -532,7 +532,7 @@
         <v>6.286150000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6298663003663004</v>
+        <v>0.6298663003663002</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -571,7 +571,7 @@
         <v>6.941025000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6941666666666667</v>
+        <v>0.6941666666666666</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>7.9675</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8054545454545454</v>
+        <v>0.8054545454545456</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -727,7 +727,7 @@
         <v>5.964</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6318333333333334</v>
+        <v>0.6318333333333332</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -883,7 +883,7 @@
         <v>6.17595</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6280238095238094</v>
+        <v>0.6280238095238095</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -961,7 +961,7 @@
         <v>6.408450000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6414761904761904</v>
+        <v>0.6414761904761903</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>6.037725</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6293214285714287</v>
+        <v>0.6293214285714286</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1160,7 +1160,7 @@
         <v>7.533</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7774761904761904</v>
+        <v>0.7774761904761905</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -1937,7 +1937,7 @@
         <v>6.7133</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6726785714285712</v>
+        <v>0.6726785714285713</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -1976,7 +1976,7 @@
         <v>6.09015</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6271785714285713</v>
+        <v>0.6271785714285714</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
@@ -2597,7 +2597,7 @@
         <v>6.367620000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>0.6370714285714285</v>
+        <v>0.6370714285714286</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         <v>6.219774999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6326071428571428</v>
+        <v>0.6326071428571429</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>6.987450000000001</v>
       </c>
       <c r="J66" t="n">
-        <v>0.7031043956043955</v>
+        <v>0.7031043956043956</v>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
@@ -3698,7 +3698,7 @@
         <v>6.06361</v>
       </c>
       <c r="J80" t="n">
-        <v>0.6091428571428572</v>
+        <v>0.6091428571428571</v>
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -3819,7 +3819,7 @@
         <v>6.69</v>
       </c>
       <c r="J83" t="n">
-        <v>0.6697857142857143</v>
+        <v>0.6697857142857141</v>
       </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
@@ -3983,7 +3983,7 @@
         <v>6.339300000000001</v>
       </c>
       <c r="J87" t="n">
-        <v>0.6351320346320347</v>
+        <v>0.6351320346320346</v>
       </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -4436,7 +4436,7 @@
         <v>6.39765</v>
       </c>
       <c r="J98" t="n">
-        <v>0.6441944444444444</v>
+        <v>0.6441944444444445</v>
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
@@ -4557,7 +4557,7 @@
         <v>6.3847</v>
       </c>
       <c r="J101" t="n">
-        <v>0.6533333333333334</v>
+        <v>0.6533333333333331</v>
       </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
@@ -4803,7 +4803,7 @@
         <v>5.990100000000001</v>
       </c>
       <c r="J107" t="n">
-        <v>0.6156904761904761</v>
+        <v>0.6156904761904762</v>
       </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
@@ -5088,7 +5088,7 @@
         <v>6.58425</v>
       </c>
       <c r="J114" t="n">
-        <v>0.6966666666666668</v>
+        <v>0.6966666666666669</v>
       </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
@@ -5334,7 +5334,7 @@
         <v>7.074375</v>
       </c>
       <c r="J120" t="n">
-        <v>0.7133095238095237</v>
+        <v>0.7133095238095238</v>
       </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
@@ -5455,7 +5455,7 @@
         <v>6.05836</v>
       </c>
       <c r="J123" t="n">
-        <v>0.6070674603174604</v>
+        <v>0.6070674603174603</v>
       </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
@@ -5537,7 +5537,7 @@
         <v>6.4396</v>
       </c>
       <c r="J125" t="n">
-        <v>0.6551349206349208</v>
+        <v>0.6551349206349206</v>
       </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
@@ -5701,7 +5701,7 @@
         <v>6.330870000000001</v>
       </c>
       <c r="J129" t="n">
-        <v>0.6381666666666667</v>
+        <v>0.6381666666666665</v>
       </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
@@ -5783,7 +5783,7 @@
         <v>6.038399999999999</v>
       </c>
       <c r="J131" t="n">
-        <v>0.6247142857142857</v>
+        <v>0.6247142857142858</v>
       </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
@@ -5947,7 +5947,7 @@
         <v>6.4152</v>
       </c>
       <c r="J135" t="n">
-        <v>0.6512619047619048</v>
+        <v>0.6512619047619047</v>
       </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
@@ -6158,7 +6158,7 @@
         <v>6.10575</v>
       </c>
       <c r="J140" t="n">
-        <v>0.6469047619047619</v>
+        <v>0.6469047619047618</v>
       </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
@@ -6236,7 +6236,7 @@
         <v>5.5905</v>
       </c>
       <c r="J142" t="n">
-        <v>0.6121547619047618</v>
+        <v>0.6121547619047619</v>
       </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
@@ -6275,7 +6275,7 @@
         <v>6.229125</v>
       </c>
       <c r="J143" t="n">
-        <v>0.6620119047619046</v>
+        <v>0.6620119047619047</v>
       </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
@@ -6314,7 +6314,7 @@
         <v>5.984125</v>
       </c>
       <c r="J144" t="n">
-        <v>0.6011904761904762</v>
+        <v>0.6011904761904761</v>
       </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
@@ -6439,7 +6439,7 @@
         <v>6.30504</v>
       </c>
       <c r="J147" t="n">
-        <v>0.6326666666666667</v>
+        <v>0.6326666666666666</v>
       </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
@@ -6560,7 +6560,7 @@
         <v>5.8734</v>
       </c>
       <c r="J150" t="n">
-        <v>0.672142857142857</v>
+        <v>0.6721428571428573</v>
       </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
@@ -7013,7 +7013,7 @@
         <v>7.784925</v>
       </c>
       <c r="J161" t="n">
-        <v>0.7903333333333334</v>
+        <v>0.7903333333333333</v>
       </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
@@ -7302,7 +7302,7 @@
         <v>6.628875</v>
       </c>
       <c r="J168" t="n">
-        <v>0.664611111111111</v>
+        <v>0.6646111111111113</v>
       </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
@@ -7341,7 +7341,7 @@
         <v>6.02875</v>
       </c>
       <c r="J169" t="n">
-        <v>0.6393015873015875</v>
+        <v>0.6393015873015874</v>
       </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
@@ -7630,7 +7630,7 @@
         <v>6.73508</v>
       </c>
       <c r="J176" t="n">
-        <v>0.6750595238095238</v>
+        <v>0.6750595238095236</v>
       </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
@@ -7669,7 +7669,7 @@
         <v>6.109375</v>
       </c>
       <c r="J177" t="n">
-        <v>0.6176825396825395</v>
+        <v>0.6176825396825396</v>
       </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
@@ -7708,7 +7708,7 @@
         <v>6.4416</v>
       </c>
       <c r="J178" t="n">
-        <v>0.6551666666666667</v>
+        <v>0.6551666666666668</v>
       </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
@@ -7872,7 +7872,7 @@
         <v>6.270960000000001</v>
       </c>
       <c r="J182" t="n">
-        <v>0.6368809523809524</v>
+        <v>0.6368809523809523</v>
       </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
@@ -8364,7 +8364,7 @@
         <v>5.436299999999999</v>
       </c>
       <c r="J194" t="n">
-        <v>0.6139047619047618</v>
+        <v>0.613904761904762</v>
       </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
@@ -8485,7 +8485,7 @@
         <v>6.09735</v>
       </c>
       <c r="J197" t="n">
-        <v>0.6266666666666667</v>
+        <v>0.6266666666666666</v>
       </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
@@ -8567,7 +8567,7 @@
         <v>6.450675</v>
       </c>
       <c r="J199" t="n">
-        <v>0.6512380952380953</v>
+        <v>0.6512380952380954</v>
       </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
@@ -8688,7 +8688,7 @@
         <v>7.40675</v>
       </c>
       <c r="J202" t="n">
-        <v>0.7433809523809524</v>
+        <v>0.7433809523809525</v>
       </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
@@ -9219,7 +9219,7 @@
         <v>6.153424999999999</v>
       </c>
       <c r="J215" t="n">
-        <v>0.6155119047619046</v>
+        <v>0.6155119047619045</v>
       </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
@@ -9301,7 +9301,7 @@
         <v>6.816974999999999</v>
       </c>
       <c r="J217" t="n">
-        <v>0.7001666666666666</v>
+        <v>0.7001666666666665</v>
       </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
@@ -9426,7 +9426,7 @@
         <v>6.65741</v>
       </c>
       <c r="J220" t="n">
-        <v>0.6710476190476189</v>
+        <v>0.671047619047619</v>
       </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
@@ -9465,7 +9465,7 @@
         <v>6.02301</v>
       </c>
       <c r="J221" t="n">
-        <v>0.6104285714285714</v>
+        <v>0.6104285714285715</v>
       </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
@@ -9629,7 +9629,7 @@
         <v>6.23616</v>
       </c>
       <c r="J225" t="n">
-        <v>0.6356904761904763</v>
+        <v>0.6356904761904761</v>
       </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
@@ -9750,7 +9750,7 @@
         <v>6.912675</v>
       </c>
       <c r="J228" t="n">
-        <v>0.7041666666666666</v>
+        <v>0.7041666666666667</v>
       </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
@@ -10207,7 +10207,7 @@
         <v>6.472200000000001</v>
       </c>
       <c r="J239" t="n">
-        <v>0.6660119047619045</v>
+        <v>0.6660119047619046</v>
       </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
@@ -10496,7 +10496,7 @@
         <v>5.932</v>
       </c>
       <c r="J246" t="n">
-        <v>0.6407380952380951</v>
+        <v>0.6407380952380953</v>
       </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
@@ -10742,7 +10742,7 @@
         <v>5.60175</v>
       </c>
       <c r="J252" t="n">
-        <v>0.602095238095238</v>
+        <v>0.6020952380952379</v>
       </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
@@ -10781,7 +10781,7 @@
         <v>7.200900000000001</v>
       </c>
       <c r="J253" t="n">
-        <v>0.7234523809523811</v>
+        <v>0.7234523809523812</v>
       </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
@@ -10863,7 +10863,7 @@
         <v>6.24685</v>
       </c>
       <c r="J255" t="n">
-        <v>0.6293571428571428</v>
+        <v>0.6293571428571429</v>
       </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
@@ -11234,7 +11234,7 @@
         <v>6.844</v>
       </c>
       <c r="J264" t="n">
-        <v>0.7008333333333333</v>
+        <v>0.7008333333333334</v>
       </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
@@ -11437,7 +11437,7 @@
         <v>5.487</v>
       </c>
       <c r="J269" t="n">
-        <v>0.6036428571428571</v>
+        <v>0.603642857142857</v>
       </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
@@ -11558,7 +11558,7 @@
         <v>5.3598</v>
       </c>
       <c r="J272" t="n">
-        <v>0.6001547619047619</v>
+        <v>0.6001547619047618</v>
       </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
@@ -12015,7 +12015,7 @@
         <v>6.080799999999999</v>
       </c>
       <c r="J283" t="n">
-        <v>0.6326904761904762</v>
+        <v>0.6326904761904761</v>
       </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
@@ -12093,7 +12093,7 @@
         <v>6.222825</v>
       </c>
       <c r="J285" t="n">
-        <v>0.63</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
@@ -12382,7 +12382,7 @@
         <v>5.7323</v>
       </c>
       <c r="J292" t="n">
-        <v>0.650690476190476</v>
+        <v>0.6506904761904763</v>
       </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
@@ -12464,7 +12464,7 @@
         <v>6.7367</v>
       </c>
       <c r="J294" t="n">
-        <v>0.6763095238095239</v>
+        <v>0.6763095238095238</v>
       </c>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr"/>
@@ -12542,7 +12542,7 @@
         <v>6.4476</v>
       </c>
       <c r="J296" t="n">
-        <v>0.6826190476190477</v>
+        <v>0.6826190476190476</v>
       </c>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr"/>
@@ -13124,7 +13124,7 @@
         <v>7.726500000000001</v>
       </c>
       <c r="J310" t="n">
-        <v>0.8068333333333334</v>
+        <v>0.8068333333333332</v>
       </c>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr"/>
@@ -13417,7 +13417,7 @@
         <v>5.1645</v>
       </c>
       <c r="J317" t="n">
-        <v>0.6033333333333332</v>
+        <v>0.6033333333333333</v>
       </c>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr"/>
@@ -13952,7 +13952,7 @@
         <v>6.02446</v>
       </c>
       <c r="J330" t="n">
-        <v>0.6033690476190475</v>
+        <v>0.6033690476190476</v>
       </c>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
         <v>6.689480000000001</v>
       </c>
       <c r="J332" t="n">
-        <v>0.6695555555555555</v>
+        <v>0.6695555555555557</v>
       </c>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr"/>
@@ -14155,7 +14155,7 @@
         <v>6.041525000000001</v>
       </c>
       <c r="J335" t="n">
-        <v>0.6127142857142858</v>
+        <v>0.6127142857142855</v>
       </c>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr"/>
@@ -14319,7 +14319,7 @@
         <v>6.281099999999999</v>
       </c>
       <c r="J339" t="n">
-        <v>0.6384761904761905</v>
+        <v>0.6384761904761904</v>
       </c>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr"/>
@@ -14940,7 +14940,7 @@
         <v>6.765000000000001</v>
       </c>
       <c r="J354" t="n">
-        <v>0.6869047619047618</v>
+        <v>0.6869047619047619</v>
       </c>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr"/>
@@ -15018,7 +15018,7 @@
         <v>6.8145</v>
       </c>
       <c r="J356" t="n">
-        <v>0.7127619047619045</v>
+        <v>0.7127619047619046</v>
       </c>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr"/>
@@ -16002,7 +16002,7 @@
         <v>6.373600000000001</v>
       </c>
       <c r="J380" t="n">
-        <v>0.6511190476190477</v>
+        <v>0.6511190476190475</v>
       </c>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr"/>

--- a/backtest_df.xlsx
+++ b/backtest_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M289"/>
+  <dimension ref="A1:M305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5201,50 +5201,46 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>NSE:UTIAMC-EQ</t>
+          <t>NSE:SEQUENT-EQ</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F117" t="n">
-        <v>1011.6</v>
+        <v>152.68</v>
       </c>
       <c r="G117" t="n">
-        <v>13150.8</v>
+        <v>12977.8</v>
       </c>
       <c r="H117" t="n">
-        <v>13.1508</v>
+        <v>12.9778</v>
       </c>
       <c r="I117" t="n">
-        <v>6.575400000000001</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>-208.2261999999985</v>
-      </c>
-      <c r="L117" t="n">
-        <v>-1.413117629860626</v>
-      </c>
-      <c r="M117" t="n">
-        <v>1026.1</v>
-      </c>
+        <v>6.488900000000001</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>45785</v>
+        <v>45784</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>NSE:BDL-EQ</t>
+          <t>NSE:UTIAMC-EQ</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5253,29 +5249,29 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F118" t="n">
-        <v>1453.8</v>
+        <v>1011.6</v>
       </c>
       <c r="G118" t="n">
-        <v>11630.4</v>
+        <v>13150.8</v>
       </c>
       <c r="H118" t="n">
-        <v>11.6304</v>
+        <v>13.1508</v>
       </c>
       <c r="I118" t="n">
-        <v>5.8152</v>
+        <v>6.575400000000001</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>467.3543999999993</v>
+        <v>-208.2261999999985</v>
       </c>
       <c r="L118" t="n">
-        <v>4.34969853574504</v>
+        <v>-1.413117629860626</v>
       </c>
       <c r="M118" t="n">
-        <v>1393.2</v>
+        <v>1026.1</v>
       </c>
     </row>
     <row r="119">
@@ -5283,39 +5279,43 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>45786</v>
+        <v>45785</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>NSE:ANANTRAJ-EQ</t>
+          <t>NSE:BDL-EQ</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F119" t="n">
-        <v>428.75</v>
+        <v>1453.8</v>
       </c>
       <c r="G119" t="n">
-        <v>12433.75</v>
+        <v>11630.4</v>
       </c>
       <c r="H119" t="n">
-        <v>12.43375</v>
+        <v>11.6304</v>
       </c>
       <c r="I119" t="n">
-        <v>6.216875</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
+        <v>5.8152</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>467.3543999999993</v>
+      </c>
+      <c r="L119" t="n">
+        <v>4.34969853574504</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1393.2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>NSE:IRCON-EQ</t>
+          <t>NSE:ANANTRAJ-EQ</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5335,22 +5335,22 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="F120" t="n">
-        <v>147.51</v>
+        <v>428.75</v>
       </c>
       <c r="G120" t="n">
-        <v>12095.82</v>
+        <v>12433.75</v>
       </c>
       <c r="H120" t="n">
-        <v>12.09582</v>
+        <v>12.43375</v>
       </c>
       <c r="I120" t="n">
-        <v>6.04791</v>
+        <v>6.216875</v>
       </c>
       <c r="J120" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>NSE:TEXRAIL-EQ</t>
+          <t>NSE:IRCON-EQ</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5374,22 +5374,22 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F121" t="n">
-        <v>129.33</v>
+        <v>147.51</v>
       </c>
       <c r="G121" t="n">
-        <v>12286.35</v>
+        <v>12095.82</v>
       </c>
       <c r="H121" t="n">
-        <v>12.28635</v>
+        <v>12.09582</v>
       </c>
       <c r="I121" t="n">
-        <v>6.143175</v>
+        <v>6.04791</v>
       </c>
       <c r="J121" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
@@ -5400,11 +5400,11 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>45789</v>
+        <v>45786</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>NSE:HBLENGINE-EQ</t>
+          <t>NSE:TEXRAIL-EQ</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5413,22 +5413,22 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F122" t="n">
-        <v>505.55</v>
+        <v>129.33</v>
       </c>
       <c r="G122" t="n">
-        <v>12133.2</v>
+        <v>12286.35</v>
       </c>
       <c r="H122" t="n">
-        <v>12.1332</v>
+        <v>12.28635</v>
       </c>
       <c r="I122" t="n">
-        <v>6.0666</v>
+        <v>6.143175</v>
       </c>
       <c r="J122" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
@@ -5443,39 +5443,35 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>NSE:NAZARA-EQ</t>
+          <t>NSE:HBLENGINE-EQ</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F123" t="n">
-        <v>1165.8</v>
+        <v>505.55</v>
       </c>
       <c r="G123" t="n">
-        <v>18652.8</v>
+        <v>12133.2</v>
       </c>
       <c r="H123" t="n">
-        <v>18.6528</v>
+        <v>12.1332</v>
       </c>
       <c r="I123" t="n">
-        <v>9.3264</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>2495.220799999999</v>
-      </c>
-      <c r="L123" t="n">
-        <v>15.64328935621465</v>
-      </c>
-      <c r="M123" t="n">
-        <v>1008.1</v>
-      </c>
+        <v>6.0666</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5486,35 +5482,39 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NSE:UNOMINDA-EQ</t>
+          <t>NSE:NAZARA-EQ</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F124" t="n">
-        <v>959.05</v>
+        <v>1165.8</v>
       </c>
       <c r="G124" t="n">
-        <v>11508.6</v>
+        <v>18652.8</v>
       </c>
       <c r="H124" t="n">
-        <v>11.5086</v>
+        <v>18.6528</v>
       </c>
       <c r="I124" t="n">
-        <v>5.7543</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
+        <v>9.3264</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>2495.220799999999</v>
+      </c>
+      <c r="L124" t="n">
+        <v>15.64328935621465</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1008.1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>NSE:VBL-EQ</t>
+          <t>NSE:UNOMINDA-EQ</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5534,19 +5534,19 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F125" t="n">
-        <v>513.85</v>
+        <v>959.05</v>
       </c>
       <c r="G125" t="n">
-        <v>11818.55</v>
+        <v>11508.6</v>
       </c>
       <c r="H125" t="n">
-        <v>11.81855</v>
+        <v>11.5086</v>
       </c>
       <c r="I125" t="n">
-        <v>5.909275000000001</v>
+        <v>5.7543</v>
       </c>
       <c r="J125" t="n">
         <v>0.61</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>NSE:COCHINSHIP-EQ</t>
+          <t>NSE:GEPIL-EQ</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5612,22 +5612,22 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F127" t="n">
-        <v>1577</v>
+        <v>239.57</v>
       </c>
       <c r="G127" t="n">
-        <v>12616</v>
+        <v>12218.07</v>
       </c>
       <c r="H127" t="n">
-        <v>12.616</v>
+        <v>12.21807</v>
       </c>
       <c r="I127" t="n">
-        <v>6.308</v>
+        <v>6.109035</v>
       </c>
       <c r="J127" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
@@ -5642,35 +5642,39 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>NSE:GEPIL-EQ</t>
+          <t>NSE:INTELLECT-EQ</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F128" t="n">
-        <v>239.57</v>
+        <v>913.35</v>
       </c>
       <c r="G128" t="n">
-        <v>12218.07</v>
+        <v>13700.25</v>
       </c>
       <c r="H128" t="n">
-        <v>12.21807</v>
+        <v>13.70025</v>
       </c>
       <c r="I128" t="n">
-        <v>6.109035</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
+        <v>6.850125</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1836.449625000001</v>
+      </c>
+      <c r="L128" t="n">
+        <v>15.6798176176303</v>
+      </c>
+      <c r="M128" t="n">
+        <v>789.55</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5681,39 +5685,35 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>NSE:INTELLECT-EQ</t>
+          <t>NSE:ITDCEM-EQ</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F129" t="n">
-        <v>913.35</v>
+        <v>564.95</v>
       </c>
       <c r="G129" t="n">
-        <v>13700.25</v>
+        <v>14123.75</v>
       </c>
       <c r="H129" t="n">
-        <v>13.70025</v>
+        <v>14.12375</v>
       </c>
       <c r="I129" t="n">
-        <v>6.850125</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>1836.449625000001</v>
-      </c>
-      <c r="L129" t="n">
-        <v>15.6798176176303</v>
-      </c>
-      <c r="M129" t="n">
-        <v>789.55</v>
-      </c>
+        <v>7.061875000000001</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>NSE:ITDCEM-EQ</t>
+          <t>NSE:KIRIINDUS-EQ</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5733,22 +5733,22 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F130" t="n">
-        <v>564.95</v>
+        <v>623.75</v>
       </c>
       <c r="G130" t="n">
-        <v>14123.75</v>
+        <v>11851.25</v>
       </c>
       <c r="H130" t="n">
-        <v>14.12375</v>
+        <v>11.85125</v>
       </c>
       <c r="I130" t="n">
-        <v>7.061875000000001</v>
+        <v>5.925625</v>
       </c>
       <c r="J130" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>NSE:KIRIINDUS-EQ</t>
+          <t>NSE:LUMAXTECH-EQ</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5772,22 +5772,22 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F131" t="n">
-        <v>623.75</v>
+        <v>596.95</v>
       </c>
       <c r="G131" t="n">
-        <v>11851.25</v>
+        <v>12535.95</v>
       </c>
       <c r="H131" t="n">
-        <v>11.85125</v>
+        <v>12.53595</v>
       </c>
       <c r="I131" t="n">
-        <v>5.925625</v>
+        <v>6.267975000000001</v>
       </c>
       <c r="J131" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
@@ -5798,11 +5798,11 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>45790</v>
+        <v>45791</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>NSE:LUMAXTECH-EQ</t>
+          <t>NSE:BEML-EQ</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5811,22 +5811,22 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F132" t="n">
-        <v>596.95</v>
+        <v>3389.8</v>
       </c>
       <c r="G132" t="n">
-        <v>12535.95</v>
+        <v>10169.4</v>
       </c>
       <c r="H132" t="n">
-        <v>12.53595</v>
+        <v>10.1694</v>
       </c>
       <c r="I132" t="n">
-        <v>6.267975000000001</v>
+        <v>5.084700000000001</v>
       </c>
       <c r="J132" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
@@ -5927,39 +5927,35 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>NSE:RALLIS-EQ</t>
+          <t>NSE:PREMIERENE-EQ</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F135" t="n">
-        <v>292.25</v>
+        <v>1019.9</v>
       </c>
       <c r="G135" t="n">
-        <v>15197</v>
+        <v>12238.8</v>
       </c>
       <c r="H135" t="n">
-        <v>15.197</v>
+        <v>12.2388</v>
       </c>
       <c r="I135" t="n">
-        <v>7.5985</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>2585.5245</v>
-      </c>
-      <c r="L135" t="n">
-        <v>20.71956710314346</v>
-      </c>
-      <c r="M135" t="n">
-        <v>242.09</v>
-      </c>
+        <v>6.1194</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5970,7 +5966,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>NSE:TEXRAIL-EQ</t>
+          <t>NSE:RALLIS-EQ</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5979,29 +5975,29 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="F136" t="n">
-        <v>155.13</v>
+        <v>292.25</v>
       </c>
       <c r="G136" t="n">
-        <v>14737.35</v>
+        <v>15197</v>
       </c>
       <c r="H136" t="n">
-        <v>14.73735</v>
+        <v>15.197</v>
       </c>
       <c r="I136" t="n">
-        <v>7.368675000000001</v>
+        <v>7.5985</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>2428.893974999998</v>
+        <v>2585.5245</v>
       </c>
       <c r="L136" t="n">
-        <v>19.94896775690094</v>
+        <v>20.71956710314346</v>
       </c>
       <c r="M136" t="n">
-        <v>129.33</v>
+        <v>242.09</v>
       </c>
     </row>
     <row r="137">
@@ -6013,46 +6009,50 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>NSE:ZENTEC-EQ</t>
+          <t>NSE:TEXRAIL-EQ</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F137" t="n">
-        <v>1628</v>
+        <v>155.13</v>
       </c>
       <c r="G137" t="n">
-        <v>11396</v>
+        <v>14737.35</v>
       </c>
       <c r="H137" t="n">
-        <v>11.396</v>
+        <v>14.73735</v>
       </c>
       <c r="I137" t="n">
-        <v>5.698</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
+        <v>7.368675000000001</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>2428.893974999998</v>
+      </c>
+      <c r="L137" t="n">
+        <v>19.94896775690094</v>
+      </c>
+      <c r="M137" t="n">
+        <v>129.33</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>45792</v>
+        <v>45791</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>NSE:ABCAPITAL-EQ</t>
+          <t>NSE:ZENTEC-EQ</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6061,22 +6061,22 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F138" t="n">
-        <v>215.4</v>
+        <v>1628</v>
       </c>
       <c r="G138" t="n">
-        <v>14001</v>
+        <v>11396</v>
       </c>
       <c r="H138" t="n">
-        <v>14.001</v>
+        <v>11.396</v>
       </c>
       <c r="I138" t="n">
-        <v>7.0005</v>
+        <v>5.698</v>
       </c>
       <c r="J138" t="n">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
@@ -6091,39 +6091,35 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>NSE:ASTERDM-EQ</t>
+          <t>NSE:ABCAPITAL-EQ</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F139" t="n">
-        <v>581.45</v>
+        <v>215.4</v>
       </c>
       <c r="G139" t="n">
-        <v>15117.7</v>
+        <v>14001</v>
       </c>
       <c r="H139" t="n">
-        <v>15.1177</v>
+        <v>14.001</v>
       </c>
       <c r="I139" t="n">
-        <v>7.558850000000001</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>1966.323450000003</v>
-      </c>
-      <c r="L139" t="n">
-        <v>15.15001485295576</v>
-      </c>
-      <c r="M139" t="n">
-        <v>504.9499999999999</v>
-      </c>
+        <v>7.0005</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6134,7 +6130,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>NSE:ASTRAMICRO-EQ</t>
+          <t>NSE:ASTERDM-EQ</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6143,29 +6139,29 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F140" t="n">
-        <v>1002.3</v>
+        <v>581.45</v>
       </c>
       <c r="G140" t="n">
-        <v>16036.8</v>
+        <v>15117.7</v>
       </c>
       <c r="H140" t="n">
-        <v>16.0368</v>
+        <v>15.1177</v>
       </c>
       <c r="I140" t="n">
-        <v>8.0184</v>
+        <v>7.558850000000001</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>2731.144799999999</v>
+        <v>1966.323450000003</v>
       </c>
       <c r="L140" t="n">
-        <v>20.74448861582941</v>
+        <v>15.15001485295576</v>
       </c>
       <c r="M140" t="n">
-        <v>830.1</v>
+        <v>504.9499999999999</v>
       </c>
     </row>
     <row r="141">
@@ -6177,35 +6173,39 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>NSE:EMIL-EQ</t>
+          <t>NSE:ASTRAMICRO-EQ</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="F141" t="n">
-        <v>134.41</v>
+        <v>1002.3</v>
       </c>
       <c r="G141" t="n">
-        <v>13709.82</v>
+        <v>16036.8</v>
       </c>
       <c r="H141" t="n">
-        <v>13.70982</v>
+        <v>16.0368</v>
       </c>
       <c r="I141" t="n">
-        <v>6.85491</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
+        <v>8.0184</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>2731.144799999999</v>
+      </c>
+      <c r="L141" t="n">
+        <v>20.74448861582941</v>
+      </c>
+      <c r="M141" t="n">
+        <v>830.1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6216,39 +6216,35 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>NSE:ITDCEM-EQ</t>
+          <t>NSE:EMIL-EQ</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="F142" t="n">
-        <v>674.6</v>
+        <v>134.41</v>
       </c>
       <c r="G142" t="n">
-        <v>16865</v>
+        <v>13709.82</v>
       </c>
       <c r="H142" t="n">
-        <v>16.865</v>
+        <v>13.70982</v>
       </c>
       <c r="I142" t="n">
-        <v>8.432500000000001</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>2715.952499999999</v>
-      </c>
-      <c r="L142" t="n">
-        <v>19.40879723869368</v>
-      </c>
-      <c r="M142" t="n">
-        <v>564.95</v>
-      </c>
+        <v>6.85491</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6259,35 +6255,39 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>NSE:KOLTEPATIL-EQ</t>
+          <t>NSE:ITDCEM-EQ</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F143" t="n">
-        <v>360.1</v>
+        <v>674.6</v>
       </c>
       <c r="G143" t="n">
-        <v>13323.7</v>
+        <v>16865</v>
       </c>
       <c r="H143" t="n">
-        <v>13.3237</v>
+        <v>16.865</v>
       </c>
       <c r="I143" t="n">
-        <v>6.66185</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
+        <v>8.432500000000001</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>2715.952499999999</v>
+      </c>
+      <c r="L143" t="n">
+        <v>19.40879723869368</v>
+      </c>
+      <c r="M143" t="n">
+        <v>564.95</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6298,78 +6298,78 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>NSE:TECHNOE-EQ</t>
+          <t>NSE:SEQUENT-EQ</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F144" t="n">
-        <v>1220.9</v>
+        <v>176.34</v>
       </c>
       <c r="G144" t="n">
-        <v>14650.8</v>
+        <v>14988.9</v>
       </c>
       <c r="H144" t="n">
-        <v>14.6508</v>
+        <v>14.9889</v>
       </c>
       <c r="I144" t="n">
-        <v>7.325400000000001</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
+        <v>7.49445</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1988.61665</v>
+      </c>
+      <c r="L144" t="n">
+        <v>15.49646319098768</v>
+      </c>
+      <c r="M144" t="n">
+        <v>152.68</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>45793</v>
+        <v>45792</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>NSE:63MOONS-EQ</t>
+          <t>NSE:TECHNOE-EQ</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F145" t="n">
-        <v>819.05</v>
+        <v>1220.9</v>
       </c>
       <c r="G145" t="n">
-        <v>13923.85</v>
+        <v>14650.8</v>
       </c>
       <c r="H145" t="n">
-        <v>13.92385</v>
+        <v>14.6508</v>
       </c>
       <c r="I145" t="n">
-        <v>6.961924999999999</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>1873.764224999999</v>
-      </c>
-      <c r="L145" t="n">
-        <v>15.75042396834369</v>
-      </c>
-      <c r="M145" t="n">
-        <v>707.6</v>
-      </c>
+        <v>7.325400000000001</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>NSE:ANANTRAJ-EQ</t>
+          <t>NSE:63MOONS-EQ</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6389,29 +6389,29 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>514.1</v>
+        <v>819.05</v>
       </c>
       <c r="G146" t="n">
-        <v>14908.9</v>
+        <v>13923.85</v>
       </c>
       <c r="H146" t="n">
-        <v>14.9089</v>
+        <v>13.92385</v>
       </c>
       <c r="I146" t="n">
-        <v>7.45445</v>
+        <v>6.961924999999999</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>2452.78665</v>
+        <v>1873.764224999999</v>
       </c>
       <c r="L146" t="n">
-        <v>19.9067055393586</v>
+        <v>15.75042396834369</v>
       </c>
       <c r="M146" t="n">
-        <v>428.75</v>
+        <v>707.6</v>
       </c>
     </row>
     <row r="147">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>NSE:COCHINSHIP-EQ</t>
+          <t>NSE:ANANTRAJ-EQ</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6432,29 +6432,29 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F147" t="n">
-        <v>2035.6</v>
+        <v>514.1</v>
       </c>
       <c r="G147" t="n">
-        <v>16284.8</v>
+        <v>14908.9</v>
       </c>
       <c r="H147" t="n">
-        <v>16.2848</v>
+        <v>14.9089</v>
       </c>
       <c r="I147" t="n">
-        <v>8.1424</v>
+        <v>7.45445</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>3644.372799999999</v>
+        <v>2452.78665</v>
       </c>
       <c r="L147" t="n">
-        <v>29.08053265694356</v>
+        <v>19.9067055393586</v>
       </c>
       <c r="M147" t="n">
-        <v>1577</v>
+        <v>428.75</v>
       </c>
     </row>
     <row r="148">
@@ -6942,43 +6942,39 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>NSE:VBL-EQ</t>
+          <t>NSE:AIIL-EQ</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F160" t="n">
-        <v>480.3</v>
+        <v>2215.7</v>
       </c>
       <c r="G160" t="n">
-        <v>11046.9</v>
+        <v>11078.5</v>
       </c>
       <c r="H160" t="n">
-        <v>11.0469</v>
+        <v>11.0785</v>
       </c>
       <c r="I160" t="n">
-        <v>5.52345</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>-788.2203500000003</v>
-      </c>
-      <c r="L160" t="n">
-        <v>-6.529142745937532</v>
-      </c>
-      <c r="M160" t="n">
-        <v>513.85</v>
-      </c>
+        <v>5.53925</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6989,35 +6985,39 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>NSE:AIIL-EQ</t>
+          <t>NSE:CUPID-EQ</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="F161" t="n">
-        <v>2215.7</v>
+        <v>97.16</v>
       </c>
       <c r="G161" t="n">
-        <v>11078.5</v>
+        <v>15642.76</v>
       </c>
       <c r="H161" t="n">
-        <v>11.0785</v>
+        <v>15.64276</v>
       </c>
       <c r="I161" t="n">
-        <v>5.53925</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
+        <v>7.82138</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>2098.515859999999</v>
+      </c>
+      <c r="L161" t="n">
+        <v>15.69421290783519</v>
+      </c>
+      <c r="M161" t="n">
+        <v>83.98</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>NSE:CUPID-EQ</t>
+          <t>NSE:EMIL-EQ</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -7037,29 +7037,29 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="F162" t="n">
-        <v>97.16</v>
+        <v>126.08</v>
       </c>
       <c r="G162" t="n">
-        <v>15642.76</v>
+        <v>12860.16</v>
       </c>
       <c r="H162" t="n">
-        <v>15.64276</v>
+        <v>12.86016</v>
       </c>
       <c r="I162" t="n">
-        <v>7.82138</v>
+        <v>6.43008</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>2098.515859999999</v>
+        <v>-868.9502399999999</v>
       </c>
       <c r="L162" t="n">
-        <v>15.69421290783519</v>
+        <v>-6.197455546462316</v>
       </c>
       <c r="M162" t="n">
-        <v>83.98</v>
+        <v>134.41</v>
       </c>
     </row>
     <row r="163">
@@ -7067,43 +7067,39 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>45798</v>
+        <v>45799</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>NSE:EMIL-EQ</t>
+          <t>NSE:APOLLO-EQ</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F163" t="n">
-        <v>126.08</v>
+        <v>150.65</v>
       </c>
       <c r="G163" t="n">
-        <v>12860.16</v>
+        <v>14462.4</v>
       </c>
       <c r="H163" t="n">
-        <v>12.86016</v>
+        <v>14.4624</v>
       </c>
       <c r="I163" t="n">
-        <v>6.43008</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>-868.9502399999999</v>
-      </c>
-      <c r="L163" t="n">
-        <v>-6.197455546462316</v>
-      </c>
-      <c r="M163" t="n">
-        <v>134.41</v>
-      </c>
+        <v>7.231200000000001</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7114,7 +7110,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>NSE:APOLLO-EQ</t>
+          <t>NSE:BEL-EQ</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7123,22 +7119,22 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="F164" t="n">
-        <v>150.65</v>
+        <v>383.4</v>
       </c>
       <c r="G164" t="n">
-        <v>14462.4</v>
+        <v>12652.2</v>
       </c>
       <c r="H164" t="n">
-        <v>14.4624</v>
+        <v>12.6522</v>
       </c>
       <c r="I164" t="n">
-        <v>7.231200000000001</v>
+        <v>6.326099999999999</v>
       </c>
       <c r="J164" t="n">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
@@ -7149,78 +7145,86 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>45799</v>
+        <v>45800</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>NSE:BEL-EQ</t>
+          <t>NSE:APOLLO-EQ</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="F165" t="n">
-        <v>383.4</v>
+        <v>139.31</v>
       </c>
       <c r="G165" t="n">
-        <v>12652.2</v>
+        <v>13373.76</v>
       </c>
       <c r="H165" t="n">
-        <v>12.6522</v>
+        <v>13.37376</v>
       </c>
       <c r="I165" t="n">
-        <v>6.326099999999999</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
+        <v>6.68688</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>-1108.70064</v>
+      </c>
+      <c r="L165" t="n">
+        <v>-7.527381347494194</v>
+      </c>
+      <c r="M165" t="n">
+        <v>150.65</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>45799</v>
+        <v>45800</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>NSE:CASHIETF-EQ</t>
+          <t>NSE:MANGCHEFER-EQ</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F166" t="n">
-        <v>1011.45</v>
+        <v>258</v>
       </c>
       <c r="G166" t="n">
-        <v>13148.85</v>
+        <v>15996</v>
       </c>
       <c r="H166" t="n">
-        <v>13.14885</v>
+        <v>15.996</v>
       </c>
       <c r="I166" t="n">
-        <v>6.574425000000001</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
+        <v>7.998</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1858.326000000001</v>
+      </c>
+      <c r="L166" t="n">
+        <v>13.33684765419083</v>
+      </c>
+      <c r="M166" t="n">
+        <v>227.64</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7231,121 +7235,117 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>NSE:APOLLO-EQ</t>
+          <t>NSE:SEQUENT-EQ</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F167" t="n">
-        <v>139.31</v>
+        <v>179.93</v>
       </c>
       <c r="G167" t="n">
-        <v>13373.76</v>
+        <v>12595.1</v>
       </c>
       <c r="H167" t="n">
-        <v>13.37376</v>
+        <v>12.5951</v>
       </c>
       <c r="I167" t="n">
-        <v>6.68688</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>-1108.70064</v>
-      </c>
-      <c r="L167" t="n">
-        <v>-7.527381347494194</v>
-      </c>
-      <c r="M167" t="n">
-        <v>150.65</v>
-      </c>
+        <v>6.29755</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>NSE:COCHINSHIP-EQ</t>
+          <t>NSE:BEML-EQ</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F168" t="n">
-        <v>1915</v>
+        <v>4279.7</v>
       </c>
       <c r="G168" t="n">
-        <v>15320</v>
+        <v>12839.1</v>
       </c>
       <c r="H168" t="n">
-        <v>15.32</v>
+        <v>12.8391</v>
       </c>
       <c r="I168" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
+        <v>6.419549999999999</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>2650.441349999997</v>
+      </c>
+      <c r="L168" t="n">
+        <v>26.25228627057641</v>
+      </c>
+      <c r="M168" t="n">
+        <v>3389.800000000001</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>NSE:MANGCHEFER-EQ</t>
+          <t>NSE:ITI-EQ</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F169" t="n">
-        <v>258</v>
+        <v>281.15</v>
       </c>
       <c r="G169" t="n">
-        <v>15996</v>
+        <v>12370.6</v>
       </c>
       <c r="H169" t="n">
-        <v>15.996</v>
+        <v>12.3706</v>
       </c>
       <c r="I169" t="n">
-        <v>7.998</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1858.326000000001</v>
-      </c>
-      <c r="L169" t="n">
-        <v>13.33684765419083</v>
-      </c>
-      <c r="M169" t="n">
-        <v>227.64</v>
-      </c>
+        <v>6.1853</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>NSE:ITI-EQ</t>
+          <t>NSE:JMFINANCIL-EQ</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7365,22 +7365,22 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="F170" t="n">
-        <v>281.15</v>
+        <v>122.12</v>
       </c>
       <c r="G170" t="n">
-        <v>12370.6</v>
+        <v>12944.72</v>
       </c>
       <c r="H170" t="n">
-        <v>12.3706</v>
+        <v>12.94472</v>
       </c>
       <c r="I170" t="n">
-        <v>6.1853</v>
+        <v>6.472360000000001</v>
       </c>
       <c r="J170" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>NSE:JMFINANCIL-EQ</t>
+          <t>NSE:KFINTECH-EQ</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7447,22 +7447,22 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="F172" t="n">
-        <v>122.38</v>
+        <v>1079.2</v>
       </c>
       <c r="G172" t="n">
-        <v>14318.46</v>
+        <v>11871.2</v>
       </c>
       <c r="H172" t="n">
-        <v>14.31846</v>
+        <v>11.8712</v>
       </c>
       <c r="I172" t="n">
-        <v>7.15923</v>
+        <v>5.935600000000001</v>
       </c>
       <c r="J172" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
@@ -7473,43 +7473,39 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>45805</v>
+        <v>45804</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>NSE:ITI-EQ</t>
+          <t>NSE:QPOWER-EQ</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F173" t="n">
-        <v>340.15</v>
+        <v>440.7</v>
       </c>
       <c r="G173" t="n">
-        <v>14966.6</v>
+        <v>13661.7</v>
       </c>
       <c r="H173" t="n">
-        <v>14.9666</v>
+        <v>13.6617</v>
       </c>
       <c r="I173" t="n">
-        <v>7.4833</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>2573.5501</v>
-      </c>
-      <c r="L173" t="n">
-        <v>20.98523919615864</v>
-      </c>
-      <c r="M173" t="n">
-        <v>281.15</v>
-      </c>
+        <v>6.83085</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7520,7 +7516,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>NSE:TECHNOE-EQ</t>
+          <t>NSE:ITI-EQ</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7529,29 +7525,29 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F174" t="n">
-        <v>1438</v>
+        <v>340.15</v>
       </c>
       <c r="G174" t="n">
-        <v>17256</v>
+        <v>14966.6</v>
       </c>
       <c r="H174" t="n">
-        <v>17.256</v>
+        <v>14.9666</v>
       </c>
       <c r="I174" t="n">
-        <v>8.628</v>
+        <v>7.4833</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>2579.315999999999</v>
+        <v>2573.5501</v>
       </c>
       <c r="L174" t="n">
-        <v>17.78196412482594</v>
+        <v>20.98523919615864</v>
       </c>
       <c r="M174" t="n">
-        <v>1220.9</v>
+        <v>281.15</v>
       </c>
     </row>
     <row r="175">
@@ -7563,78 +7559,78 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>NSE:VINCOFE-EQ</t>
+          <t>NSE:TECHNOE-EQ</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="F175" t="n">
-        <v>113.66</v>
+        <v>1438</v>
       </c>
       <c r="G175" t="n">
-        <v>13525.54</v>
+        <v>17256</v>
       </c>
       <c r="H175" t="n">
-        <v>13.52554</v>
+        <v>17.256</v>
       </c>
       <c r="I175" t="n">
-        <v>6.76277</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
+        <v>8.628</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>2579.315999999999</v>
+      </c>
+      <c r="L175" t="n">
+        <v>17.78196412482594</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1220.9</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>45806</v>
+        <v>45805</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>NSE:KIRIINDUS-EQ</t>
+          <t>NSE:VINCOFE-EQ</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="F176" t="n">
-        <v>726.55</v>
+        <v>113.66</v>
       </c>
       <c r="G176" t="n">
-        <v>13804.45</v>
+        <v>13525.54</v>
       </c>
       <c r="H176" t="n">
-        <v>13.80445</v>
+        <v>13.52554</v>
       </c>
       <c r="I176" t="n">
-        <v>6.902225</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1932.493324999999</v>
-      </c>
-      <c r="L176" t="n">
-        <v>16.48096192384769</v>
-      </c>
-      <c r="M176" t="n">
-        <v>623.75</v>
-      </c>
+        <v>6.76277</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7645,39 +7641,35 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>NSE:LUMAXTECH-EQ</t>
+          <t>NSE:COCHINSHIP-EQ</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F177" t="n">
-        <v>696.75</v>
+        <v>1979.2</v>
       </c>
       <c r="G177" t="n">
-        <v>14631.75</v>
+        <v>11875.2</v>
       </c>
       <c r="H177" t="n">
-        <v>14.63175</v>
+        <v>11.8752</v>
       </c>
       <c r="I177" t="n">
-        <v>7.315875</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>2073.852374999999</v>
-      </c>
-      <c r="L177" t="n">
-        <v>16.71831811709522</v>
-      </c>
-      <c r="M177" t="n">
-        <v>596.95</v>
-      </c>
+        <v>5.937600000000001</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7688,7 +7680,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>NSE:STAR-EQ</t>
+          <t>NSE:KIRIINDUS-EQ</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7700,26 +7692,26 @@
         <v>19</v>
       </c>
       <c r="F178" t="n">
-        <v>781.3</v>
+        <v>726.55</v>
       </c>
       <c r="G178" t="n">
-        <v>14844.7</v>
+        <v>13804.45</v>
       </c>
       <c r="H178" t="n">
-        <v>14.8447</v>
+        <v>13.80445</v>
       </c>
       <c r="I178" t="n">
-        <v>7.42235</v>
+        <v>6.902225</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>2254.882949999998</v>
+        <v>1932.493324999999</v>
       </c>
       <c r="L178" t="n">
-        <v>18.11928339254666</v>
+        <v>16.48096192384769</v>
       </c>
       <c r="M178" t="n">
-        <v>661.45</v>
+        <v>623.75</v>
       </c>
     </row>
     <row r="179">
@@ -7727,11 +7719,11 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>45807</v>
+        <v>45806</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>NSE:RELINFRA-BE</t>
+          <t>NSE:LUMAXTECH-EQ</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7740,29 +7732,29 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F179" t="n">
-        <v>330.5</v>
+        <v>696.75</v>
       </c>
       <c r="G179" t="n">
-        <v>17847</v>
+        <v>14631.75</v>
       </c>
       <c r="H179" t="n">
-        <v>17.847</v>
+        <v>14.63175</v>
       </c>
       <c r="I179" t="n">
-        <v>8.923500000000001</v>
+        <v>7.315875</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>2727.2295</v>
+        <v>2073.852374999999</v>
       </c>
       <c r="L179" t="n">
-        <v>18.24686940966011</v>
+        <v>16.71831811709522</v>
       </c>
       <c r="M179" t="n">
-        <v>279.5</v>
+        <v>596.95</v>
       </c>
     </row>
     <row r="180">
@@ -7770,121 +7762,125 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>45810</v>
+        <v>45806</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>NSE:AUBANK-EQ</t>
+          <t>NSE:STAR-EQ</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F180" t="n">
-        <v>718.65</v>
+        <v>781.3</v>
       </c>
       <c r="G180" t="n">
-        <v>12935.7</v>
+        <v>14844.7</v>
       </c>
       <c r="H180" t="n">
-        <v>12.9357</v>
+        <v>14.8447</v>
       </c>
       <c r="I180" t="n">
-        <v>6.467849999999999</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
+        <v>7.42235</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>2254.882949999998</v>
+      </c>
+      <c r="L180" t="n">
+        <v>18.11928339254666</v>
+      </c>
+      <c r="M180" t="n">
+        <v>661.45</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>45810</v>
+        <v>45807</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>NSE:CDSL-EQ</t>
+          <t>NSE:CASHIETF-EQ</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F181" t="n">
-        <v>1682.9</v>
+        <v>1012.98</v>
       </c>
       <c r="G181" t="n">
-        <v>13463.2</v>
+        <v>12155.76</v>
       </c>
       <c r="H181" t="n">
-        <v>13.4632</v>
+        <v>12.15576</v>
       </c>
       <c r="I181" t="n">
-        <v>6.7316</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>1836.605200000001</v>
-      </c>
-      <c r="L181" t="n">
-        <v>15.9980700303281</v>
-      </c>
-      <c r="M181" t="n">
-        <v>1450.8</v>
-      </c>
+        <v>6.07788</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>45810</v>
+        <v>45807</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>NSE:CUPID-EQ</t>
+          <t>NSE:RELINFRA-BE</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="F182" t="n">
-        <v>108.64</v>
+        <v>330.5</v>
       </c>
       <c r="G182" t="n">
-        <v>12384.96</v>
+        <v>17847</v>
       </c>
       <c r="H182" t="n">
-        <v>12.38496</v>
+        <v>17.847</v>
       </c>
       <c r="I182" t="n">
-        <v>6.192480000000001</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
+        <v>8.923500000000001</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>2727.2295</v>
+      </c>
+      <c r="L182" t="n">
+        <v>18.24686940966011</v>
+      </c>
+      <c r="M182" t="n">
+        <v>279.5</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7895,39 +7891,35 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>NSE:GEPIL-EQ</t>
+          <t>NSE:AUBANK-EQ</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F183" t="n">
-        <v>285.95</v>
+        <v>718.65</v>
       </c>
       <c r="G183" t="n">
-        <v>14583.45</v>
+        <v>12935.7</v>
       </c>
       <c r="H183" t="n">
-        <v>14.58345</v>
+        <v>12.9357</v>
       </c>
       <c r="I183" t="n">
-        <v>7.291725</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>2343.504825</v>
-      </c>
-      <c r="L183" t="n">
-        <v>19.35968610427015</v>
-      </c>
-      <c r="M183" t="n">
-        <v>239.57</v>
-      </c>
+        <v>6.467849999999999</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7938,7 +7930,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>NSE:KOLTEPATIL-EQ</t>
+          <t>NSE:CDSL-EQ</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -7947,29 +7939,29 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F184" t="n">
-        <v>431.4</v>
+        <v>1682.9</v>
       </c>
       <c r="G184" t="n">
-        <v>15961.8</v>
+        <v>13463.2</v>
       </c>
       <c r="H184" t="n">
-        <v>15.9618</v>
+        <v>13.4632</v>
       </c>
       <c r="I184" t="n">
-        <v>7.9809</v>
+        <v>6.7316</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>2614.157299999998</v>
+        <v>1836.605200000001</v>
       </c>
       <c r="L184" t="n">
-        <v>19.80005554012773</v>
+        <v>15.9980700303281</v>
       </c>
       <c r="M184" t="n">
-        <v>360.1</v>
+        <v>1450.8</v>
       </c>
     </row>
     <row r="185">
@@ -7981,39 +7973,35 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>NSE:MANINDS-EQ</t>
+          <t>NSE:CESC-EQ</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F185" t="n">
-        <v>403.25</v>
+        <v>164.5</v>
       </c>
       <c r="G185" t="n">
-        <v>14920.25</v>
+        <v>12666.5</v>
       </c>
       <c r="H185" t="n">
-        <v>14.92025</v>
+        <v>12.6665</v>
       </c>
       <c r="I185" t="n">
-        <v>7.460125000000001</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>2771.119625</v>
-      </c>
-      <c r="L185" t="n">
-        <v>23.03585049580473</v>
-      </c>
-      <c r="M185" t="n">
-        <v>327.75</v>
-      </c>
+        <v>6.33325</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8024,7 +8012,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>NSE:NELCAST-EQ</t>
+          <t>NSE:CUPID-EQ</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -8033,22 +8021,22 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F186" t="n">
-        <v>134.95</v>
+        <v>108.64</v>
       </c>
       <c r="G186" t="n">
-        <v>12685.3</v>
+        <v>12384.96</v>
       </c>
       <c r="H186" t="n">
-        <v>12.6853</v>
+        <v>12.38496</v>
       </c>
       <c r="I186" t="n">
-        <v>6.34265</v>
+        <v>6.192480000000001</v>
       </c>
       <c r="J186" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
@@ -8063,7 +8051,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>NSE:PARADEEP-EQ</t>
+          <t>NSE:GEPIL-EQ</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -8072,29 +8060,29 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="F187" t="n">
-        <v>176.19</v>
+        <v>285.95</v>
       </c>
       <c r="G187" t="n">
-        <v>17442.81</v>
+        <v>14583.45</v>
       </c>
       <c r="H187" t="n">
-        <v>17.44281</v>
+        <v>14.58345</v>
       </c>
       <c r="I187" t="n">
-        <v>8.721405000000001</v>
+        <v>7.291725</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>2294.395785</v>
+        <v>2343.504825</v>
       </c>
       <c r="L187" t="n">
-        <v>15.34533551554828</v>
+        <v>19.35968610427015</v>
       </c>
       <c r="M187" t="n">
-        <v>152.75</v>
+        <v>239.57</v>
       </c>
     </row>
     <row r="188">
@@ -8106,7 +8094,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>NSE:UNOMINDA-EQ</t>
+          <t>NSE:MANINDS-EQ</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -8115,29 +8103,29 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F188" t="n">
-        <v>1018.5</v>
+        <v>403.25</v>
       </c>
       <c r="G188" t="n">
-        <v>12222</v>
+        <v>14920.25</v>
       </c>
       <c r="H188" t="n">
-        <v>12.222</v>
+        <v>14.92025</v>
       </c>
       <c r="I188" t="n">
-        <v>6.111</v>
+        <v>7.460125000000001</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>695.0670000000019</v>
+        <v>2771.119625</v>
       </c>
       <c r="L188" t="n">
-        <v>6.19884260466088</v>
+        <v>23.03585049580473</v>
       </c>
       <c r="M188" t="n">
-        <v>959.0499999999998</v>
+        <v>327.75</v>
       </c>
     </row>
     <row r="189">
@@ -8145,11 +8133,11 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>45811</v>
+        <v>45810</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>NSE:DBREALTY-BE</t>
+          <t>NSE:NELCAST-EQ</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -8158,22 +8146,22 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F189" t="n">
-        <v>205.74</v>
+        <v>134.95</v>
       </c>
       <c r="G189" t="n">
-        <v>14813.28</v>
+        <v>12685.3</v>
       </c>
       <c r="H189" t="n">
-        <v>14.81328</v>
+        <v>12.6853</v>
       </c>
       <c r="I189" t="n">
-        <v>7.40664</v>
+        <v>6.34265</v>
       </c>
       <c r="J189" t="n">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
@@ -8184,89 +8172,97 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>45811</v>
+        <v>45810</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>NSE:QPOWER-EQ</t>
+          <t>NSE:PARADEEP-EQ</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F190" t="n">
-        <v>474.35</v>
+        <v>176.19</v>
       </c>
       <c r="G190" t="n">
-        <v>17550.95</v>
+        <v>17442.81</v>
       </c>
       <c r="H190" t="n">
-        <v>17.55095</v>
+        <v>17.44281</v>
       </c>
       <c r="I190" t="n">
-        <v>8.775475</v>
-      </c>
-      <c r="J190" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
+        <v>8.721405000000001</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>2294.395785</v>
+      </c>
+      <c r="L190" t="n">
+        <v>15.34533551554828</v>
+      </c>
+      <c r="M190" t="n">
+        <v>152.75</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>45812</v>
+        <v>45810</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>NSE:KALAMANDIR-EQ</t>
+          <t>NSE:UNOMINDA-EQ</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="F191" t="n">
-        <v>131.97</v>
+        <v>1018.5</v>
       </c>
       <c r="G191" t="n">
-        <v>12141.24</v>
+        <v>12222</v>
       </c>
       <c r="H191" t="n">
-        <v>12.14124</v>
+        <v>12.222</v>
       </c>
       <c r="I191" t="n">
-        <v>6.07062</v>
-      </c>
-      <c r="J191" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
+        <v>6.111</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>695.0670000000019</v>
+      </c>
+      <c r="L191" t="n">
+        <v>6.19884260466088</v>
+      </c>
+      <c r="M191" t="n">
+        <v>959.0499999999998</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>45812</v>
+        <v>45811</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>NSE:NATCOPHARM-EQ</t>
+          <t>NSE:DBREALTY-BE</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -8275,22 +8271,22 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F192" t="n">
-        <v>858.95</v>
+        <v>205.74</v>
       </c>
       <c r="G192" t="n">
-        <v>12025.3</v>
+        <v>14813.28</v>
       </c>
       <c r="H192" t="n">
-        <v>12.0253</v>
+        <v>14.81328</v>
       </c>
       <c r="I192" t="n">
-        <v>6.012650000000001</v>
+        <v>7.40664</v>
       </c>
       <c r="J192" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
@@ -8301,125 +8297,121 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>45813</v>
+        <v>45812</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>NSE:ABCAPITAL-EQ</t>
+          <t>NSE:KALAMANDIR-EQ</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="F193" t="n">
-        <v>225.2</v>
+        <v>131.97</v>
       </c>
       <c r="G193" t="n">
-        <v>14638</v>
+        <v>12141.24</v>
       </c>
       <c r="H193" t="n">
-        <v>14.638</v>
+        <v>12.14124</v>
       </c>
       <c r="I193" t="n">
-        <v>7.319</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>615.0429999999989</v>
-      </c>
-      <c r="L193" t="n">
-        <v>4.54967502321262</v>
-      </c>
-      <c r="M193" t="n">
-        <v>215.4</v>
-      </c>
+        <v>6.07062</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>45813</v>
+        <v>45812</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>NSE:COCHINSHIP-EQ</t>
+          <t>NSE:NATCOPHARM-EQ</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F194" t="n">
-        <v>2350.8</v>
+        <v>858.95</v>
       </c>
       <c r="G194" t="n">
-        <v>18806.4</v>
+        <v>12025.3</v>
       </c>
       <c r="H194" t="n">
-        <v>18.8064</v>
+        <v>12.0253</v>
       </c>
       <c r="I194" t="n">
-        <v>9.403200000000002</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>3458.190400000001</v>
-      </c>
-      <c r="L194" t="n">
-        <v>22.75718015665797</v>
-      </c>
-      <c r="M194" t="n">
-        <v>1915</v>
-      </c>
+        <v>6.012650000000001</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>45813</v>
+        <v>45812</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>NSE:GLENMARK-EQ</t>
+          <t>NSE:PREMIERENE-EQ</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F195" t="n">
-        <v>1584.8</v>
+        <v>1058</v>
       </c>
       <c r="G195" t="n">
-        <v>12678.4</v>
+        <v>12696</v>
       </c>
       <c r="H195" t="n">
-        <v>12.6784</v>
+        <v>12.696</v>
       </c>
       <c r="I195" t="n">
-        <v>6.3392</v>
-      </c>
-      <c r="J195" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
+        <v>6.348</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>438.1560000000003</v>
+      </c>
+      <c r="L195" t="n">
+        <v>3.735660358858714</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1019.9</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8430,7 +8422,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>NSE:JMFINANCIL-EQ</t>
+          <t>NSE:ABCAPITAL-EQ</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -8439,29 +8431,29 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="F196" t="n">
-        <v>141.62</v>
+        <v>225.2</v>
       </c>
       <c r="G196" t="n">
-        <v>16569.54</v>
+        <v>14638</v>
       </c>
       <c r="H196" t="n">
-        <v>16.56954</v>
+        <v>14.638</v>
       </c>
       <c r="I196" t="n">
-        <v>8.28477</v>
+        <v>7.319</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>2226.225690000001</v>
+        <v>615.0429999999989</v>
       </c>
       <c r="L196" t="n">
-        <v>15.72152312469358</v>
+        <v>4.54967502321262</v>
       </c>
       <c r="M196" t="n">
-        <v>122.38</v>
+        <v>215.4</v>
       </c>
     </row>
     <row r="197">
@@ -8469,50 +8461,54 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>45814</v>
+        <v>45813</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>NSE:ABCAPITAL-EQ</t>
+          <t>NSE:COCHINSHIP-EQ</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="F197" t="n">
-        <v>233.41</v>
+        <v>2350.8</v>
       </c>
       <c r="G197" t="n">
-        <v>14238.01</v>
+        <v>14104.8</v>
       </c>
       <c r="H197" t="n">
-        <v>14.23801</v>
+        <v>14.1048</v>
       </c>
       <c r="I197" t="n">
-        <v>7.119005</v>
-      </c>
-      <c r="J197" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+        <v>7.0524</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>2208.442800000001</v>
+      </c>
+      <c r="L197" t="n">
+        <v>18.77526273241714</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1979.2</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>45814</v>
+        <v>45813</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>NSE:JMFINANCIL-EQ</t>
+          <t>NSE:GLENMARK-EQ</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -8521,22 +8517,22 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="F198" t="n">
-        <v>142.57</v>
+        <v>1584.8</v>
       </c>
       <c r="G198" t="n">
-        <v>12118.45</v>
+        <v>12678.4</v>
       </c>
       <c r="H198" t="n">
-        <v>12.11845</v>
+        <v>12.6784</v>
       </c>
       <c r="I198" t="n">
-        <v>6.059225</v>
+        <v>6.3392</v>
       </c>
       <c r="J198" t="n">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
@@ -8547,11 +8543,11 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>45814</v>
+        <v>45813</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>NSE:MCX-EQ</t>
+          <t>NSE:JMFINANCIL-EQ</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -8560,29 +8556,29 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="F199" t="n">
-        <v>7418</v>
+        <v>141.62</v>
       </c>
       <c r="G199" t="n">
-        <v>14836</v>
+        <v>15011.72</v>
       </c>
       <c r="H199" t="n">
-        <v>14.836</v>
+        <v>15.01172</v>
       </c>
       <c r="I199" t="n">
-        <v>7.418</v>
+        <v>7.505860000000001</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>1913.746</v>
+        <v>2044.48242</v>
       </c>
       <c r="L199" t="n">
-        <v>15.0077519379845</v>
+        <v>15.96790042581068</v>
       </c>
       <c r="M199" t="n">
-        <v>6450</v>
+        <v>122.12</v>
       </c>
     </row>
     <row r="200">
@@ -8594,93 +8590,85 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>NSE:RALLIS-EQ</t>
+          <t>NSE:ABCAPITAL-EQ</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F200" t="n">
-        <v>316.9</v>
+        <v>233.41</v>
       </c>
       <c r="G200" t="n">
-        <v>14577.4</v>
+        <v>14238.01</v>
       </c>
       <c r="H200" t="n">
-        <v>14.5774</v>
+        <v>14.23801</v>
       </c>
       <c r="I200" t="n">
-        <v>7.2887</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>1164.933899999998</v>
-      </c>
-      <c r="L200" t="n">
-        <v>8.862933699759516</v>
-      </c>
-      <c r="M200" t="n">
-        <v>291.1</v>
-      </c>
+        <v>7.119005</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>45817</v>
+        <v>45814</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>NSE:CUPID-EQ</t>
+          <t>NSE:JMFINANCIL-EQ</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F201" t="n">
-        <v>102.68</v>
+        <v>142.57</v>
       </c>
       <c r="G201" t="n">
-        <v>11705.52</v>
+        <v>12118.45</v>
       </c>
       <c r="H201" t="n">
-        <v>11.70552</v>
+        <v>12.11845</v>
       </c>
       <c r="I201" t="n">
-        <v>5.85276</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>-696.9982800000009</v>
-      </c>
-      <c r="L201" t="n">
-        <v>-5.486008836524308</v>
-      </c>
-      <c r="M201" t="n">
-        <v>108.64</v>
-      </c>
+        <v>6.059225</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>45817</v>
+        <v>45814</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>NSE:ITDCEM-EQ</t>
+          <t>NSE:KFINTECH-EQ</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -8689,29 +8677,29 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F202" t="n">
-        <v>759.2</v>
+        <v>1248.3</v>
       </c>
       <c r="G202" t="n">
-        <v>14424.8</v>
+        <v>13731.3</v>
       </c>
       <c r="H202" t="n">
-        <v>14.4248</v>
+        <v>13.7313</v>
       </c>
       <c r="I202" t="n">
-        <v>7.212400000000001</v>
+        <v>6.86565</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>1639.912800000001</v>
+        <v>1839.503049999999</v>
       </c>
       <c r="L202" t="n">
-        <v>13.01823595087459</v>
+        <v>15.66901408450703</v>
       </c>
       <c r="M202" t="n">
-        <v>671.75</v>
+        <v>1079.2</v>
       </c>
     </row>
     <row r="203">
@@ -8719,93 +8707,93 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>45819</v>
+        <v>45814</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>NSE:360ONE-EQ</t>
+          <t>NSE:MCX-EQ</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F203" t="n">
-        <v>1087.1</v>
+        <v>7418</v>
       </c>
       <c r="G203" t="n">
-        <v>13045.2</v>
+        <v>14836</v>
       </c>
       <c r="H203" t="n">
-        <v>13.0452</v>
+        <v>14.836</v>
       </c>
       <c r="I203" t="n">
-        <v>6.5226</v>
-      </c>
-      <c r="J203" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="inlineStr"/>
+        <v>7.418</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1913.746</v>
+      </c>
+      <c r="L203" t="n">
+        <v>15.0077519379845</v>
+      </c>
+      <c r="M203" t="n">
+        <v>6450</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>45819</v>
+        <v>45814</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>NSE:AIIL-EQ</t>
+          <t>NSE:PEL-EQ</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F204" t="n">
-        <v>2536.4</v>
+        <v>1173.7</v>
       </c>
       <c r="G204" t="n">
-        <v>12682</v>
+        <v>12910.7</v>
       </c>
       <c r="H204" t="n">
-        <v>12.682</v>
+        <v>12.9107</v>
       </c>
       <c r="I204" t="n">
-        <v>6.341</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>1584.477000000001</v>
-      </c>
-      <c r="L204" t="n">
-        <v>14.47398113463015</v>
-      </c>
-      <c r="M204" t="n">
-        <v>2215.7</v>
-      </c>
+        <v>6.45535</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>45820</v>
+        <v>45814</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>NSE:BEL-EQ</t>
+          <t>NSE:RALLIS-EQ</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -8814,29 +8802,29 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F205" t="n">
-        <v>387.4</v>
+        <v>316.9</v>
       </c>
       <c r="G205" t="n">
-        <v>12784.2</v>
+        <v>14577.4</v>
       </c>
       <c r="H205" t="n">
-        <v>12.7842</v>
+        <v>14.5774</v>
       </c>
       <c r="I205" t="n">
-        <v>6.392099999999999</v>
+        <v>7.2887</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>112.8237</v>
+        <v>1164.933899999998</v>
       </c>
       <c r="L205" t="n">
-        <v>1.043296817944705</v>
+        <v>8.862933699759516</v>
       </c>
       <c r="M205" t="n">
-        <v>383.4</v>
+        <v>291.1</v>
       </c>
     </row>
     <row r="206">
@@ -8844,11 +8832,11 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>45820</v>
+        <v>45817</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>NSE:CASHIETF-EQ</t>
+          <t>NSE:CUPID-EQ</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -8857,29 +8845,29 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="F206" t="n">
-        <v>1014.54</v>
+        <v>102.68</v>
       </c>
       <c r="G206" t="n">
-        <v>13189.02</v>
+        <v>11705.52</v>
       </c>
       <c r="H206" t="n">
-        <v>13.18902</v>
+        <v>11.70552</v>
       </c>
       <c r="I206" t="n">
-        <v>6.594510000000001</v>
+        <v>5.85276</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>20.38646999999893</v>
+        <v>-696.9982800000009</v>
       </c>
       <c r="L206" t="n">
-        <v>0.3055020020762191</v>
+        <v>-5.486008836524308</v>
       </c>
       <c r="M206" t="n">
-        <v>1011.45</v>
+        <v>108.64</v>
       </c>
     </row>
     <row r="207">
@@ -8887,11 +8875,11 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>45821</v>
+        <v>45817</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>NSE:DBREALTY-BE</t>
+          <t>NSE:ITDCEM-EQ</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -8900,29 +8888,29 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="F207" t="n">
-        <v>239.93</v>
+        <v>759.2</v>
       </c>
       <c r="G207" t="n">
-        <v>17274.96</v>
+        <v>14424.8</v>
       </c>
       <c r="H207" t="n">
-        <v>17.27496</v>
+        <v>14.4248</v>
       </c>
       <c r="I207" t="n">
-        <v>8.63748</v>
+        <v>7.212400000000001</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>2435.76756</v>
+        <v>1639.912800000001</v>
       </c>
       <c r="L207" t="n">
-        <v>16.61806163118499</v>
+        <v>13.01823595087459</v>
       </c>
       <c r="M207" t="n">
-        <v>205.74</v>
+        <v>671.75</v>
       </c>
     </row>
     <row r="208">
@@ -8930,50 +8918,54 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>45825</v>
+        <v>45818</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>NSE:COCHINSHIP-EQ</t>
+          <t>NSE:QPOWER-EQ</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F208" t="n">
-        <v>2192.2</v>
+        <v>520.6</v>
       </c>
       <c r="G208" t="n">
-        <v>10961</v>
+        <v>16138.6</v>
       </c>
       <c r="H208" t="n">
-        <v>10.961</v>
+        <v>16.1386</v>
       </c>
       <c r="I208" t="n">
-        <v>5.4805</v>
-      </c>
-      <c r="J208" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
+        <v>8.0693</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>2452.692100000001</v>
+      </c>
+      <c r="L208" t="n">
+        <v>18.13024733378716</v>
+      </c>
+      <c r="M208" t="n">
+        <v>440.7</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>45825</v>
+        <v>45819</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>NSE:EMIL-EQ</t>
+          <t>NSE:360ONE-EQ</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -8982,19 +8974,19 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="F209" t="n">
-        <v>134.43</v>
+        <v>1087.1</v>
       </c>
       <c r="G209" t="n">
-        <v>13711.86</v>
+        <v>13045.2</v>
       </c>
       <c r="H209" t="n">
-        <v>13.71186</v>
+        <v>13.0452</v>
       </c>
       <c r="I209" t="n">
-        <v>6.855930000000001</v>
+        <v>6.5226</v>
       </c>
       <c r="J209" t="n">
         <v>0.6899999999999999</v>
@@ -9008,11 +9000,11 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>45826</v>
+        <v>45819</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>NSE:EMIL-EQ</t>
+          <t>NSE:AIIL-EQ</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -9021,29 +9013,29 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="F210" t="n">
-        <v>158.37</v>
+        <v>2536.4</v>
       </c>
       <c r="G210" t="n">
-        <v>16153.74</v>
+        <v>12682</v>
       </c>
       <c r="H210" t="n">
-        <v>16.15374</v>
+        <v>12.682</v>
       </c>
       <c r="I210" t="n">
-        <v>8.07687</v>
+        <v>6.341</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>2417.64939</v>
+        <v>1584.477000000001</v>
       </c>
       <c r="L210" t="n">
-        <v>17.80852488283865</v>
+        <v>14.47398113463015</v>
       </c>
       <c r="M210" t="n">
-        <v>134.43</v>
+        <v>2215.7</v>
       </c>
     </row>
     <row r="211">
@@ -9051,171 +9043,179 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>45826</v>
+        <v>45820</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>NSE:JGCHEM-EQ</t>
+          <t>NSE:BEL-EQ</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F211" t="n">
-        <v>398.5</v>
+        <v>387.4</v>
       </c>
       <c r="G211" t="n">
-        <v>12353.5</v>
+        <v>12784.2</v>
       </c>
       <c r="H211" t="n">
-        <v>12.3535</v>
+        <v>12.7842</v>
       </c>
       <c r="I211" t="n">
-        <v>6.17675</v>
-      </c>
-      <c r="J211" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="inlineStr"/>
+        <v>6.392099999999999</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>112.8237</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1.043296817944705</v>
+      </c>
+      <c r="M211" t="n">
+        <v>383.4</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>45826</v>
+        <v>45820</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>NSE:VINCOFE-EQ</t>
+          <t>NSE:QPOWER-EQ</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="F212" t="n">
-        <v>121.51</v>
+        <v>496.6</v>
       </c>
       <c r="G212" t="n">
-        <v>14459.69</v>
+        <v>17381</v>
       </c>
       <c r="H212" t="n">
-        <v>14.45969</v>
+        <v>17.381</v>
       </c>
       <c r="I212" t="n">
-        <v>7.229845</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>912.460465000001</v>
-      </c>
-      <c r="L212" t="n">
-        <v>6.906563434805568</v>
-      </c>
-      <c r="M212" t="n">
-        <v>113.66</v>
-      </c>
+        <v>8.6905</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>45827</v>
+        <v>45821</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>NSE:MPHASIS-EQ</t>
+          <t>NSE:DBREALTY-BE</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="F213" t="n">
-        <v>2648.3</v>
+        <v>239.93</v>
       </c>
       <c r="G213" t="n">
-        <v>10593.2</v>
+        <v>17274.96</v>
       </c>
       <c r="H213" t="n">
-        <v>10.5932</v>
+        <v>17.27496</v>
       </c>
       <c r="I213" t="n">
-        <v>5.296600000000001</v>
-      </c>
-      <c r="J213" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="inlineStr"/>
+        <v>8.63748</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>2435.76756</v>
+      </c>
+      <c r="L213" t="n">
+        <v>16.61806163118499</v>
+      </c>
+      <c r="M213" t="n">
+        <v>205.74</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>45828</v>
+        <v>45821</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>NSE:HPL-EQ</t>
+          <t>NSE:SEQUENT-EQ</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="F214" t="n">
-        <v>531.55</v>
+        <v>197.26</v>
       </c>
       <c r="G214" t="n">
-        <v>12225.65</v>
+        <v>13808.2</v>
       </c>
       <c r="H214" t="n">
-        <v>12.22565</v>
+        <v>13.8082</v>
       </c>
       <c r="I214" t="n">
-        <v>6.112825</v>
-      </c>
-      <c r="J214" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="inlineStr"/>
+        <v>6.9041</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1192.387699999999</v>
+      </c>
+      <c r="L214" t="n">
+        <v>9.631523370199513</v>
+      </c>
+      <c r="M214" t="n">
+        <v>179.93</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>45828</v>
+        <v>45825</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>NSE:JAGSNPHARM-EQ</t>
+          <t>NSE:COCHINSHIP-EQ</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -9224,19 +9224,19 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F215" t="n">
-        <v>214.1</v>
+        <v>2192.2</v>
       </c>
       <c r="G215" t="n">
-        <v>12203.7</v>
+        <v>10961</v>
       </c>
       <c r="H215" t="n">
-        <v>12.2037</v>
+        <v>10.961</v>
       </c>
       <c r="I215" t="n">
-        <v>6.10185</v>
+        <v>5.4805</v>
       </c>
       <c r="J215" t="n">
         <v>0.62</v>
@@ -9250,54 +9250,50 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>45828</v>
+        <v>45825</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>NSE:QPOWER-EQ</t>
+          <t>NSE:EMIL-EQ</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="F216" t="n">
-        <v>572.35</v>
+        <v>134.43</v>
       </c>
       <c r="G216" t="n">
-        <v>21176.95</v>
+        <v>13711.86</v>
       </c>
       <c r="H216" t="n">
-        <v>21.17695</v>
+        <v>13.71186</v>
       </c>
       <c r="I216" t="n">
-        <v>10.588475</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>3594.234575</v>
-      </c>
-      <c r="L216" t="n">
-        <v>20.65985032149257</v>
-      </c>
-      <c r="M216" t="n">
-        <v>474.35</v>
-      </c>
+        <v>6.855930000000001</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>45831</v>
+        <v>45826</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>NSE:AUBANK-EQ</t>
+          <t>NSE:EMIL-EQ</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -9306,29 +9302,29 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F217" t="n">
-        <v>796.55</v>
+        <v>158.37</v>
       </c>
       <c r="G217" t="n">
-        <v>14337.9</v>
+        <v>16153.74</v>
       </c>
       <c r="H217" t="n">
-        <v>14.3379</v>
+        <v>16.15374</v>
       </c>
       <c r="I217" t="n">
-        <v>7.16895</v>
+        <v>8.07687</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>1380.69315</v>
+        <v>2417.64939</v>
       </c>
       <c r="L217" t="n">
-        <v>10.8397690113407</v>
+        <v>17.80852488283865</v>
       </c>
       <c r="M217" t="n">
-        <v>718.65</v>
+        <v>134.43</v>
       </c>
     </row>
     <row r="218">
@@ -9336,11 +9332,11 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>45831</v>
+        <v>45826</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>NSE:CUPID-EQ</t>
+          <t>NSE:JGCHEM-EQ</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -9349,22 +9345,22 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="F218" t="n">
-        <v>92.56999999999999</v>
+        <v>398.5</v>
       </c>
       <c r="G218" t="n">
-        <v>13515.22</v>
+        <v>12353.5</v>
       </c>
       <c r="H218" t="n">
-        <v>13.51522</v>
+        <v>12.3535</v>
       </c>
       <c r="I218" t="n">
-        <v>6.75761</v>
+        <v>6.17675</v>
       </c>
       <c r="J218" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
@@ -9375,11 +9371,11 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>45831</v>
+        <v>45826</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>NSE:NELCAST-EQ</t>
+          <t>NSE:VINCOFE-EQ</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -9388,29 +9384,29 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="F219" t="n">
-        <v>136.31</v>
+        <v>121.51</v>
       </c>
       <c r="G219" t="n">
-        <v>12813.14</v>
+        <v>14459.69</v>
       </c>
       <c r="H219" t="n">
-        <v>12.81314</v>
+        <v>14.45969</v>
       </c>
       <c r="I219" t="n">
-        <v>6.406569999999999</v>
+        <v>7.229845</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>108.6202900000013</v>
+        <v>912.460465000001</v>
       </c>
       <c r="L219" t="n">
-        <v>1.00778065950353</v>
+        <v>6.906563434805568</v>
       </c>
       <c r="M219" t="n">
-        <v>134.95</v>
+        <v>113.66</v>
       </c>
     </row>
     <row r="220">
@@ -9418,50 +9414,54 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>45831</v>
+        <v>45827</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>NSE:VINCOFE-EQ</t>
+          <t>NSE:PEL-EQ</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F220" t="n">
-        <v>119.91</v>
+        <v>1100.2</v>
       </c>
       <c r="G220" t="n">
-        <v>12710.46</v>
+        <v>12102.2</v>
       </c>
       <c r="H220" t="n">
-        <v>12.71046</v>
+        <v>12.1022</v>
       </c>
       <c r="I220" t="n">
-        <v>6.35523</v>
-      </c>
-      <c r="J220" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="inlineStr"/>
+        <v>6.051100000000001</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>-826.6532999999999</v>
+      </c>
+      <c r="L220" t="n">
+        <v>-6.262247593081708</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1173.7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>NSE:ABCAPITAL-EQ</t>
+          <t>NSE:CASHIETF-EQ</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -9470,29 +9470,29 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F221" t="n">
-        <v>271.19</v>
+        <v>1015.95</v>
       </c>
       <c r="G221" t="n">
-        <v>16542.59</v>
+        <v>12191.4</v>
       </c>
       <c r="H221" t="n">
-        <v>16.54259</v>
+        <v>12.1914</v>
       </c>
       <c r="I221" t="n">
-        <v>8.271295</v>
+        <v>6.095700000000001</v>
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>2279.766115</v>
+        <v>17.35290000000033</v>
       </c>
       <c r="L221" t="n">
-        <v>16.1861102780515</v>
+        <v>0.2931943374992623</v>
       </c>
       <c r="M221" t="n">
-        <v>233.41</v>
+        <v>1012.98</v>
       </c>
     </row>
     <row r="222">
@@ -9500,11 +9500,11 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>NSE:QPOWER-EQ</t>
+          <t>NSE:HPL-EQ</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -9513,22 +9513,22 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F222" t="n">
-        <v>629.5</v>
+        <v>531.55</v>
       </c>
       <c r="G222" t="n">
-        <v>12590</v>
+        <v>12225.65</v>
       </c>
       <c r="H222" t="n">
-        <v>12.59</v>
+        <v>12.22565</v>
       </c>
       <c r="I222" t="n">
-        <v>6.295</v>
+        <v>6.112825</v>
       </c>
       <c r="J222" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
@@ -9539,11 +9539,11 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>45832</v>
+        <v>45828</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>NSE:RAYMOND-EQ</t>
+          <t>NSE:JAGSNPHARM-EQ</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -9552,19 +9552,19 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F223" t="n">
-        <v>599.5</v>
+        <v>214.1</v>
       </c>
       <c r="G223" t="n">
-        <v>11990</v>
+        <v>12203.7</v>
       </c>
       <c r="H223" t="n">
-        <v>11.99</v>
+        <v>12.2037</v>
       </c>
       <c r="I223" t="n">
-        <v>5.995</v>
+        <v>6.10185</v>
       </c>
       <c r="J223" t="n">
         <v>0.62</v>
@@ -9578,50 +9578,54 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>45833</v>
+        <v>45828</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>NSE:ASHAPURMIN-EQ</t>
+          <t>NSE:QPOWER-EQ</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F224" t="n">
-        <v>429.4</v>
+        <v>572.35</v>
       </c>
       <c r="G224" t="n">
-        <v>14599.6</v>
+        <v>20032.25</v>
       </c>
       <c r="H224" t="n">
-        <v>14.5996</v>
+        <v>20.03225</v>
       </c>
       <c r="I224" t="n">
-        <v>7.299799999999999</v>
-      </c>
-      <c r="J224" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="inlineStr"/>
+        <v>10.016125</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>2621.201625</v>
+      </c>
+      <c r="L224" t="n">
+        <v>15.25372533225936</v>
+      </c>
+      <c r="M224" t="n">
+        <v>496.6</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>NSE:KALAMANDIR-EQ</t>
+          <t>NSE:AUBANK-EQ</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -9630,29 +9634,29 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="F225" t="n">
-        <v>139.09</v>
+        <v>796.55</v>
       </c>
       <c r="G225" t="n">
-        <v>12796.28</v>
+        <v>14337.9</v>
       </c>
       <c r="H225" t="n">
-        <v>12.79628</v>
+        <v>14.3379</v>
       </c>
       <c r="I225" t="n">
-        <v>6.398140000000001</v>
+        <v>7.16895</v>
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>635.8455800000004</v>
+        <v>1380.69315</v>
       </c>
       <c r="L225" t="n">
-        <v>5.39516556793211</v>
+        <v>10.8397690113407</v>
       </c>
       <c r="M225" t="n">
-        <v>131.97</v>
+        <v>718.65</v>
       </c>
     </row>
     <row r="226">
@@ -9660,11 +9664,11 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>NSE:NATCOPHARM-EQ</t>
+          <t>NSE:CESC-EQ</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -9673,29 +9677,29 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F226" t="n">
-        <v>878.8</v>
+        <v>163.45</v>
       </c>
       <c r="G226" t="n">
-        <v>12303.2</v>
+        <v>12585.65</v>
       </c>
       <c r="H226" t="n">
-        <v>12.3032</v>
+        <v>12.58565</v>
       </c>
       <c r="I226" t="n">
-        <v>6.151599999999999</v>
+        <v>6.292825</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>259.4451999999987</v>
+        <v>-99.72847500000087</v>
       </c>
       <c r="L226" t="n">
-        <v>2.310961057104594</v>
+        <v>-0.6382978723404324</v>
       </c>
       <c r="M226" t="n">
-        <v>858.95</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="227">
@@ -9703,11 +9707,11 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>45834</v>
+        <v>45831</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>NSE:ETERNAL-EQ</t>
+          <t>NSE:CUPID-EQ</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -9716,22 +9720,22 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="F227" t="n">
-        <v>265.18</v>
+        <v>92.56999999999999</v>
       </c>
       <c r="G227" t="n">
-        <v>12463.46</v>
+        <v>13515.22</v>
       </c>
       <c r="H227" t="n">
-        <v>12.46346</v>
+        <v>13.51522</v>
       </c>
       <c r="I227" t="n">
-        <v>6.231730000000001</v>
+        <v>6.75761</v>
       </c>
       <c r="J227" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
@@ -9742,11 +9746,11 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>45834</v>
+        <v>45831</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>NSE:GLENMARK-EQ</t>
+          <t>NSE:NELCAST-EQ</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -9755,29 +9759,29 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="F228" t="n">
-        <v>1732</v>
+        <v>136.31</v>
       </c>
       <c r="G228" t="n">
-        <v>13856</v>
+        <v>12813.14</v>
       </c>
       <c r="H228" t="n">
-        <v>13.856</v>
+        <v>12.81314</v>
       </c>
       <c r="I228" t="n">
-        <v>6.928</v>
+        <v>6.406569999999999</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>1156.816</v>
+        <v>108.6202900000013</v>
       </c>
       <c r="L228" t="n">
-        <v>9.288238263503285</v>
+        <v>1.00778065950353</v>
       </c>
       <c r="M228" t="n">
-        <v>1584.8</v>
+        <v>134.95</v>
       </c>
     </row>
     <row r="229">
@@ -9785,54 +9789,50 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>45835</v>
+        <v>45831</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>NSE:COCHINSHIP-EQ</t>
+          <t>NSE:VINCOFE-EQ</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="F229" t="n">
-        <v>2044.2</v>
+        <v>119.91</v>
       </c>
       <c r="G229" t="n">
-        <v>10221</v>
+        <v>12710.46</v>
       </c>
       <c r="H229" t="n">
-        <v>10.221</v>
+        <v>12.71046</v>
       </c>
       <c r="I229" t="n">
-        <v>5.1105</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>-755.3314999999989</v>
-      </c>
-      <c r="L229" t="n">
-        <v>-6.751208831311002</v>
-      </c>
-      <c r="M229" t="n">
-        <v>2192.2</v>
-      </c>
+        <v>6.35523</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>45835</v>
+        <v>45832</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>NSE:CUPID-EQ</t>
+          <t>NSE:ABCAPITAL-EQ</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -9841,29 +9841,29 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="F230" t="n">
-        <v>107</v>
+        <v>271.19</v>
       </c>
       <c r="G230" t="n">
-        <v>15622</v>
+        <v>16542.59</v>
       </c>
       <c r="H230" t="n">
-        <v>15.622</v>
+        <v>16.54259</v>
       </c>
       <c r="I230" t="n">
-        <v>7.811</v>
+        <v>8.271295</v>
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>2083.347000000001</v>
+        <v>2279.766115</v>
       </c>
       <c r="L230" t="n">
-        <v>15.58820352165929</v>
+        <v>16.1861102780515</v>
       </c>
       <c r="M230" t="n">
-        <v>92.56999999999999</v>
+        <v>233.41</v>
       </c>
     </row>
     <row r="231">
@@ -9871,54 +9871,50 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>45835</v>
+        <v>45832</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>NSE:JMFINANCIL-EQ</t>
+          <t>NSE:QPOWER-EQ</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="F231" t="n">
-        <v>159.15</v>
+        <v>629.5</v>
       </c>
       <c r="G231" t="n">
-        <v>13527.75</v>
+        <v>12590</v>
       </c>
       <c r="H231" t="n">
-        <v>13.52775</v>
+        <v>12.59</v>
       </c>
       <c r="I231" t="n">
-        <v>6.763875000000001</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>1389.008375000001</v>
-      </c>
-      <c r="L231" t="n">
-        <v>11.62937504383812</v>
-      </c>
-      <c r="M231" t="n">
-        <v>142.57</v>
-      </c>
+        <v>6.295</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>45838</v>
+        <v>45833</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>NSE:CUPID-EQ</t>
+          <t>NSE:ASHAPURMIN-EQ</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -9927,22 +9923,22 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="F232" t="n">
-        <v>107.52</v>
+        <v>429.4</v>
       </c>
       <c r="G232" t="n">
-        <v>15160.32</v>
+        <v>14599.6</v>
       </c>
       <c r="H232" t="n">
-        <v>15.16032</v>
+        <v>14.5996</v>
       </c>
       <c r="I232" t="n">
-        <v>7.58016</v>
+        <v>7.299799999999999</v>
       </c>
       <c r="J232" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
@@ -9953,11 +9949,11 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>45838</v>
+        <v>45833</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>NSE:RAYMOND-EQ</t>
+          <t>NSE:KALAMANDIR-EQ</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -9966,29 +9962,29 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="F233" t="n">
-        <v>709.4</v>
+        <v>139.09</v>
       </c>
       <c r="G233" t="n">
-        <v>14188</v>
+        <v>12796.28</v>
       </c>
       <c r="H233" t="n">
-        <v>14.188</v>
+        <v>12.79628</v>
       </c>
       <c r="I233" t="n">
-        <v>7.094</v>
+        <v>6.398140000000001</v>
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>2176.717999999999</v>
+        <v>635.8455800000004</v>
       </c>
       <c r="L233" t="n">
-        <v>18.33194328607172</v>
+        <v>5.39516556793211</v>
       </c>
       <c r="M233" t="n">
-        <v>599.5</v>
+        <v>131.97</v>
       </c>
     </row>
     <row r="234">
@@ -9996,11 +9992,11 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>45840</v>
+        <v>45833</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>NSE:360ONE-EQ</t>
+          <t>NSE:NATCOPHARM-EQ</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -10009,29 +10005,29 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F234" t="n">
-        <v>1177.2</v>
+        <v>878.8</v>
       </c>
       <c r="G234" t="n">
-        <v>14126.4</v>
+        <v>12303.2</v>
       </c>
       <c r="H234" t="n">
-        <v>14.1264</v>
+        <v>12.3032</v>
       </c>
       <c r="I234" t="n">
-        <v>7.063200000000001</v>
+        <v>6.151599999999999</v>
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>1060.010400000002</v>
+        <v>259.4451999999987</v>
       </c>
       <c r="L234" t="n">
-        <v>8.288105970011973</v>
+        <v>2.310961057104594</v>
       </c>
       <c r="M234" t="n">
-        <v>1087.1</v>
+        <v>858.95</v>
       </c>
     </row>
     <row r="235">
@@ -10039,11 +10035,11 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>45840</v>
+        <v>45834</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>NSE:GLENMARK-EQ</t>
+          <t>NSE:ETERNAL-EQ</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -10052,22 +10048,22 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="F235" t="n">
-        <v>1770</v>
+        <v>265.18</v>
       </c>
       <c r="G235" t="n">
-        <v>10620</v>
+        <v>12463.46</v>
       </c>
       <c r="H235" t="n">
-        <v>10.62</v>
+        <v>12.46346</v>
       </c>
       <c r="I235" t="n">
-        <v>5.31</v>
+        <v>6.231730000000001</v>
       </c>
       <c r="J235" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
@@ -10078,132 +10074,136 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>45840</v>
+        <v>45834</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>NSE:YATHARTH-EQ</t>
+          <t>NSE:GLENMARK-EQ</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F236" t="n">
-        <v>548.65</v>
+        <v>1732</v>
       </c>
       <c r="G236" t="n">
-        <v>12070.3</v>
+        <v>13856</v>
       </c>
       <c r="H236" t="n">
-        <v>12.0703</v>
+        <v>13.856</v>
       </c>
       <c r="I236" t="n">
-        <v>6.03515</v>
-      </c>
-      <c r="J236" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
+        <v>6.928</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1156.816</v>
+      </c>
+      <c r="L236" t="n">
+        <v>9.288238263503285</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1584.8</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>45841</v>
+        <v>45834</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>NSE:QPOWER-EQ</t>
+          <t>NSE:PEL-EQ</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F237" t="n">
-        <v>737.3</v>
+        <v>1149.7</v>
       </c>
       <c r="G237" t="n">
-        <v>14746</v>
+        <v>12646.7</v>
       </c>
       <c r="H237" t="n">
-        <v>14.746</v>
+        <v>12.6467</v>
       </c>
       <c r="I237" t="n">
-        <v>7.373</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>2133.880999999999</v>
-      </c>
-      <c r="L237" t="n">
-        <v>17.12470214455917</v>
-      </c>
-      <c r="M237" t="n">
-        <v>629.5</v>
-      </c>
+        <v>6.32335</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>45841</v>
+        <v>45835</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>NSE:TFCILTD-EQ</t>
+          <t>NSE:COCHINSHIP-EQ</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="F238" t="n">
-        <v>242.13</v>
+        <v>2044.2</v>
       </c>
       <c r="G238" t="n">
-        <v>14285.67</v>
+        <v>10221</v>
       </c>
       <c r="H238" t="n">
-        <v>14.28567</v>
+        <v>10.221</v>
       </c>
       <c r="I238" t="n">
-        <v>7.142835</v>
-      </c>
-      <c r="J238" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
+        <v>5.1105</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>-755.3314999999989</v>
+      </c>
+      <c r="L238" t="n">
+        <v>-6.751208831311002</v>
+      </c>
+      <c r="M238" t="n">
+        <v>2192.2</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>45841</v>
+        <v>45835</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>NSE:VINCOFE-EQ</t>
+          <t>NSE:CUPID-EQ</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -10212,29 +10212,29 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="F239" t="n">
-        <v>139.99</v>
+        <v>107</v>
       </c>
       <c r="G239" t="n">
-        <v>14838.94</v>
+        <v>15622</v>
       </c>
       <c r="H239" t="n">
-        <v>14.83894</v>
+        <v>15.622</v>
       </c>
       <c r="I239" t="n">
-        <v>7.41947</v>
+        <v>7.811</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>2106.221590000001</v>
+        <v>2083.347000000001</v>
       </c>
       <c r="L239" t="n">
-        <v>16.74589275289802</v>
+        <v>15.58820352165929</v>
       </c>
       <c r="M239" t="n">
-        <v>119.91</v>
+        <v>92.56999999999999</v>
       </c>
     </row>
     <row r="240">
@@ -10242,50 +10242,54 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>45842</v>
+        <v>45835</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>NSE:BAJAJCON-EQ</t>
+          <t>NSE:JMFINANCIL-EQ</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F240" t="n">
-        <v>220.87</v>
+        <v>159.15</v>
       </c>
       <c r="G240" t="n">
-        <v>12589.59</v>
+        <v>13527.75</v>
       </c>
       <c r="H240" t="n">
-        <v>12.58959</v>
+        <v>13.52775</v>
       </c>
       <c r="I240" t="n">
-        <v>6.294795000000001</v>
-      </c>
-      <c r="J240" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="inlineStr"/>
+        <v>6.763875000000001</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1389.008375000001</v>
+      </c>
+      <c r="L240" t="n">
+        <v>11.62937504383812</v>
+      </c>
+      <c r="M240" t="n">
+        <v>142.57</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>45842</v>
+        <v>45838</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>NSE:COCHINSHIP-EQ</t>
+          <t>NSE:CUPID-EQ</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -10294,22 +10298,22 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="F241" t="n">
-        <v>2057.3</v>
+        <v>107.52</v>
       </c>
       <c r="G241" t="n">
-        <v>10286.5</v>
+        <v>15160.32</v>
       </c>
       <c r="H241" t="n">
-        <v>10.2865</v>
+        <v>15.16032</v>
       </c>
       <c r="I241" t="n">
-        <v>5.14325</v>
+        <v>7.58016</v>
       </c>
       <c r="J241" t="n">
-        <v>0.61</v>
+        <v>0.76</v>
       </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
@@ -10320,93 +10324,93 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>45842</v>
+        <v>45840</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>NSE:DBREALTY-BE</t>
+          <t>NSE:360ONE-EQ</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F242" t="n">
-        <v>230.54</v>
+        <v>1177.2</v>
       </c>
       <c r="G242" t="n">
-        <v>12910.24</v>
+        <v>14126.4</v>
       </c>
       <c r="H242" t="n">
-        <v>12.91024</v>
+        <v>14.1264</v>
       </c>
       <c r="I242" t="n">
-        <v>6.45512</v>
-      </c>
-      <c r="J242" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="inlineStr"/>
+        <v>7.063200000000001</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1060.010400000002</v>
+      </c>
+      <c r="L242" t="n">
+        <v>8.288105970011973</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1087.1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>45842</v>
+        <v>45840</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>NSE:JGCHEM-EQ</t>
+          <t>NSE:DCMSHRIRAM-EQ</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F243" t="n">
-        <v>459.4</v>
+        <v>1237.9</v>
       </c>
       <c r="G243" t="n">
-        <v>14241.4</v>
+        <v>11141.1</v>
       </c>
       <c r="H243" t="n">
-        <v>14.2414</v>
+        <v>11.1411</v>
       </c>
       <c r="I243" t="n">
-        <v>7.1207</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>1866.537899999999</v>
-      </c>
-      <c r="L243" t="n">
-        <v>15.28230865746549</v>
-      </c>
-      <c r="M243" t="n">
-        <v>398.5</v>
-      </c>
+        <v>5.57055</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>45845</v>
+        <v>45840</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>NSE:DIXON-EQ</t>
+          <t>NSE:GLENMARK-EQ</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -10415,22 +10419,22 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F244" t="n">
-        <v>15433</v>
+        <v>1770</v>
       </c>
       <c r="G244" t="n">
-        <v>15433</v>
+        <v>10620</v>
       </c>
       <c r="H244" t="n">
-        <v>15.433</v>
+        <v>10.62</v>
       </c>
       <c r="I244" t="n">
-        <v>7.7165</v>
+        <v>5.31</v>
       </c>
       <c r="J244" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
@@ -10441,11 +10445,11 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>45845</v>
+        <v>45840</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>NSE:SIGNPOST-EQ</t>
+          <t>NSE:YATHARTH-EQ</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -10454,22 +10458,22 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F245" t="n">
-        <v>229.65</v>
+        <v>548.65</v>
       </c>
       <c r="G245" t="n">
-        <v>12860.4</v>
+        <v>12070.3</v>
       </c>
       <c r="H245" t="n">
-        <v>12.8604</v>
+        <v>12.0703</v>
       </c>
       <c r="I245" t="n">
-        <v>6.4302</v>
+        <v>6.03515</v>
       </c>
       <c r="J245" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
@@ -10480,11 +10484,11 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>45845</v>
+        <v>45841</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>NSE:TFCILTD-EQ</t>
+          <t>NSE:DCMSHRIRAM-EQ</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -10493,29 +10497,29 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F246" t="n">
-        <v>279.06</v>
+        <v>1425.5</v>
       </c>
       <c r="G246" t="n">
-        <v>16464.54</v>
+        <v>12829.5</v>
       </c>
       <c r="H246" t="n">
-        <v>16.46454</v>
+        <v>12.8295</v>
       </c>
       <c r="I246" t="n">
-        <v>8.23227</v>
+        <v>6.41475</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>2154.17319</v>
+        <v>1669.155749999999</v>
       </c>
       <c r="L246" t="n">
-        <v>15.25213728162558</v>
+        <v>15.15469747152435</v>
       </c>
       <c r="M246" t="n">
-        <v>242.13</v>
+        <v>1237.9</v>
       </c>
     </row>
     <row r="247">
@@ -10523,50 +10527,54 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>45846</v>
+        <v>45841</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>NSE:ORIENTCEM-EQ</t>
+          <t>NSE:QPOWER-EQ</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F247" t="n">
-        <v>234.6</v>
+        <v>737.3</v>
       </c>
       <c r="G247" t="n">
-        <v>12433.8</v>
+        <v>14746</v>
       </c>
       <c r="H247" t="n">
-        <v>12.4338</v>
+        <v>14.746</v>
       </c>
       <c r="I247" t="n">
-        <v>6.2169</v>
-      </c>
-      <c r="J247" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
+        <v>7.373</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>2133.880999999999</v>
+      </c>
+      <c r="L247" t="n">
+        <v>17.12470214455917</v>
+      </c>
+      <c r="M247" t="n">
+        <v>629.5</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>45847</v>
+        <v>45841</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>NSE:TI-EQ</t>
+          <t>NSE:TFCILTD-EQ</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -10575,22 +10583,22 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F248" t="n">
-        <v>344.35</v>
+        <v>242.13</v>
       </c>
       <c r="G248" t="n">
-        <v>12052.25</v>
+        <v>14285.67</v>
       </c>
       <c r="H248" t="n">
-        <v>12.05225</v>
+        <v>14.28567</v>
       </c>
       <c r="I248" t="n">
-        <v>6.026125</v>
+        <v>7.142835</v>
       </c>
       <c r="J248" t="n">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
@@ -10601,7 +10609,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>45847</v>
+        <v>45841</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -10610,84 +10618,84 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F249" t="n">
-        <v>137.74</v>
+        <v>139.99</v>
       </c>
       <c r="G249" t="n">
-        <v>13774</v>
+        <v>14838.94</v>
       </c>
       <c r="H249" t="n">
-        <v>13.774</v>
+        <v>14.83894</v>
       </c>
       <c r="I249" t="n">
-        <v>6.887</v>
-      </c>
-      <c r="J249" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="inlineStr"/>
+        <v>7.41947</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>2106.221590000001</v>
+      </c>
+      <c r="L249" t="n">
+        <v>16.74589275289802</v>
+      </c>
+      <c r="M249" t="n">
+        <v>119.91</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>45848</v>
+        <v>45842</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>NSE:HPL-EQ</t>
+          <t>NSE:DBREALTY-BE</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F250" t="n">
-        <v>615.4</v>
+        <v>230.54</v>
       </c>
       <c r="G250" t="n">
-        <v>14154.2</v>
+        <v>12910.24</v>
       </c>
       <c r="H250" t="n">
-        <v>14.1542</v>
+        <v>12.91024</v>
       </c>
       <c r="I250" t="n">
-        <v>7.0771</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>1907.318700000001</v>
-      </c>
-      <c r="L250" t="n">
-        <v>15.77462139027373</v>
-      </c>
-      <c r="M250" t="n">
-        <v>531.55</v>
-      </c>
+        <v>6.45512</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>45848</v>
+        <v>45842</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>NSE:MPHASIS-EQ</t>
+          <t>NSE:JGCHEM-EQ</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -10696,29 +10704,29 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F251" t="n">
-        <v>2861.1</v>
+        <v>459.4</v>
       </c>
       <c r="G251" t="n">
-        <v>11444.4</v>
+        <v>14241.4</v>
       </c>
       <c r="H251" t="n">
-        <v>11.4444</v>
+        <v>14.2414</v>
       </c>
       <c r="I251" t="n">
-        <v>5.7222</v>
+        <v>7.1207</v>
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>834.0333999999989</v>
+        <v>1866.537899999999</v>
       </c>
       <c r="L251" t="n">
-        <v>8.03534342785937</v>
+        <v>15.28230865746549</v>
       </c>
       <c r="M251" t="n">
-        <v>2648.3</v>
+        <v>398.5</v>
       </c>
     </row>
     <row r="252">
@@ -10726,11 +10734,11 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>NSE:RAYMOND-EQ</t>
+          <t>NSE:DIXON-EQ</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -10739,22 +10747,22 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F252" t="n">
-        <v>693.4</v>
+        <v>15433</v>
       </c>
       <c r="G252" t="n">
-        <v>13868</v>
+        <v>15433</v>
       </c>
       <c r="H252" t="n">
-        <v>13.868</v>
+        <v>15.433</v>
       </c>
       <c r="I252" t="n">
-        <v>6.934</v>
+        <v>7.7165</v>
       </c>
       <c r="J252" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
@@ -10765,54 +10773,50 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>45849</v>
+        <v>45845</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>NSE:GLENMARK-EQ</t>
+          <t>NSE:SIGNPOST-EQ</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F253" t="n">
-        <v>2181.1</v>
+        <v>229.65</v>
       </c>
       <c r="G253" t="n">
-        <v>13086.6</v>
+        <v>12860.4</v>
       </c>
       <c r="H253" t="n">
-        <v>13.0866</v>
+        <v>12.8604</v>
       </c>
       <c r="I253" t="n">
-        <v>6.543299999999999</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>2446.9701</v>
-      </c>
-      <c r="L253" t="n">
-        <v>23.22598870056497</v>
-      </c>
-      <c r="M253" t="n">
-        <v>1770</v>
-      </c>
+        <v>6.4302</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>45849</v>
+        <v>45845</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>NSE:JAGSNPHARM-EQ</t>
+          <t>NSE:TFCILTD-EQ</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -10821,29 +10825,29 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F254" t="n">
-        <v>242.09</v>
+        <v>279.06</v>
       </c>
       <c r="G254" t="n">
-        <v>13799.13</v>
+        <v>16464.54</v>
       </c>
       <c r="H254" t="n">
-        <v>13.79913</v>
+        <v>16.46454</v>
       </c>
       <c r="I254" t="n">
-        <v>6.899565000000001</v>
+        <v>8.23227</v>
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>1574.731305</v>
+        <v>2154.17319</v>
       </c>
       <c r="L254" t="n">
-        <v>13.07333021952359</v>
+        <v>15.25213728162558</v>
       </c>
       <c r="M254" t="n">
-        <v>214.1</v>
+        <v>242.13</v>
       </c>
     </row>
     <row r="255">
@@ -10851,97 +10855,89 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>45852</v>
+        <v>45846</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>NSE:COCHINSHIP-EQ</t>
+          <t>NSE:ORIENTCEM-EQ</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="F255" t="n">
-        <v>1928.8</v>
+        <v>234.6</v>
       </c>
       <c r="G255" t="n">
-        <v>9644</v>
+        <v>12433.8</v>
       </c>
       <c r="H255" t="n">
-        <v>9.644</v>
+        <v>12.4338</v>
       </c>
       <c r="I255" t="n">
-        <v>4.822</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>-656.9660000000011</v>
-      </c>
-      <c r="L255" t="n">
-        <v>-6.246050648908774</v>
-      </c>
-      <c r="M255" t="n">
-        <v>2057.3</v>
-      </c>
+        <v>6.2169</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>45852</v>
+        <v>45847</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>NSE:CUPID-EQ</t>
+          <t>NSE:GLAND-EQ</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="F256" t="n">
-        <v>126.39</v>
+        <v>1877.6</v>
       </c>
       <c r="G256" t="n">
-        <v>17820.99</v>
+        <v>13143.2</v>
       </c>
       <c r="H256" t="n">
-        <v>17.82099</v>
+        <v>13.1432</v>
       </c>
       <c r="I256" t="n">
-        <v>8.910495000000001</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>2633.938515000001</v>
-      </c>
-      <c r="L256" t="n">
-        <v>17.55022321428572</v>
-      </c>
-      <c r="M256" t="n">
-        <v>107.52</v>
-      </c>
+        <v>6.571599999999999</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>45852</v>
+        <v>45847</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>NSE:RALLIS-EQ</t>
+          <t>NSE:TI-EQ</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -10950,22 +10946,22 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F257" t="n">
-        <v>354</v>
+        <v>344.35</v>
       </c>
       <c r="G257" t="n">
-        <v>12744</v>
+        <v>12052.25</v>
       </c>
       <c r="H257" t="n">
-        <v>12.744</v>
+        <v>12.05225</v>
       </c>
       <c r="I257" t="n">
-        <v>6.372</v>
+        <v>6.026125</v>
       </c>
       <c r="J257" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
@@ -10976,11 +10972,11 @@
         <v>256</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>45852</v>
+        <v>45847</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>NSE:SHAREINDIA-EQ</t>
+          <t>NSE:VINCOFE-EQ</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -10989,22 +10985,22 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F258" t="n">
-        <v>175.06</v>
+        <v>137.74</v>
       </c>
       <c r="G258" t="n">
-        <v>12079.14</v>
+        <v>13774</v>
       </c>
       <c r="H258" t="n">
-        <v>12.07914</v>
+        <v>13.774</v>
       </c>
       <c r="I258" t="n">
-        <v>6.039569999999999</v>
+        <v>6.887</v>
       </c>
       <c r="J258" t="n">
-        <v>0.61</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
@@ -11015,11 +11011,11 @@
         <v>257</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>45853</v>
+        <v>45848</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>NSE:ASHAPURMIN-EQ</t>
+          <t>NSE:HPL-EQ</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -11028,29 +11024,29 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F259" t="n">
-        <v>530.2</v>
+        <v>615.4</v>
       </c>
       <c r="G259" t="n">
-        <v>18026.8</v>
+        <v>14154.2</v>
       </c>
       <c r="H259" t="n">
-        <v>18.02680000000001</v>
+        <v>14.1542</v>
       </c>
       <c r="I259" t="n">
-        <v>9.013400000000003</v>
+        <v>7.0771</v>
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>3400.159800000003</v>
+        <v>1907.318700000001</v>
       </c>
       <c r="L259" t="n">
-        <v>23.47461574289708</v>
+        <v>15.77462139027373</v>
       </c>
       <c r="M259" t="n">
-        <v>429.4</v>
+        <v>531.55</v>
       </c>
     </row>
     <row r="260">
@@ -11058,11 +11054,11 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>45854</v>
+        <v>45848</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>NSE:GALLANTT-EQ</t>
+          <t>NSE:RAYMOND-EQ</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -11071,22 +11067,22 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F260" t="n">
-        <v>587.4</v>
+        <v>693.4</v>
       </c>
       <c r="G260" t="n">
-        <v>12335.4</v>
+        <v>13868</v>
       </c>
       <c r="H260" t="n">
-        <v>12.3354</v>
+        <v>13.868</v>
       </c>
       <c r="I260" t="n">
-        <v>6.1677</v>
+        <v>6.934</v>
       </c>
       <c r="J260" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
@@ -11097,132 +11093,136 @@
         <v>259</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>45855</v>
+        <v>45849</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>NSE:CAMLINFINE-BE</t>
+          <t>NSE:GLENMARK-EQ</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="F261" t="n">
-        <v>291.6</v>
+        <v>2181.1</v>
       </c>
       <c r="G261" t="n">
-        <v>12830.4</v>
+        <v>13086.6</v>
       </c>
       <c r="H261" t="n">
-        <v>12.8304</v>
+        <v>13.0866</v>
       </c>
       <c r="I261" t="n">
-        <v>6.4152</v>
-      </c>
-      <c r="J261" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="inlineStr"/>
+        <v>6.543299999999999</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>2446.9701</v>
+      </c>
+      <c r="L261" t="n">
+        <v>23.22598870056497</v>
+      </c>
+      <c r="M261" t="n">
+        <v>1770</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>45855</v>
+        <v>45849</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>NSE:CUPID-EQ</t>
+          <t>NSE:JAGSNPHARM-EQ</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="F262" t="n">
-        <v>133.66</v>
+        <v>242.09</v>
       </c>
       <c r="G262" t="n">
-        <v>12296.72</v>
+        <v>13799.13</v>
       </c>
       <c r="H262" t="n">
-        <v>12.29672</v>
+        <v>13.79913</v>
       </c>
       <c r="I262" t="n">
-        <v>6.148359999999999</v>
-      </c>
-      <c r="J262" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="inlineStr"/>
+        <v>6.899565000000001</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1574.731305</v>
+      </c>
+      <c r="L262" t="n">
+        <v>13.07333021952359</v>
+      </c>
+      <c r="M262" t="n">
+        <v>214.1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>NSE:ETERNAL-EQ</t>
+          <t>NSE:BAJAJCON-EQ</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F263" t="n">
-        <v>259.65</v>
+        <v>235.81</v>
       </c>
       <c r="G263" t="n">
-        <v>12203.55</v>
+        <v>12026.31</v>
       </c>
       <c r="H263" t="n">
-        <v>12.20355</v>
+        <v>12.02631</v>
       </c>
       <c r="I263" t="n">
-        <v>6.101775</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>-278.2153250000014</v>
-      </c>
-      <c r="L263" t="n">
-        <v>-2.085375971038551</v>
-      </c>
-      <c r="M263" t="n">
-        <v>265.18</v>
-      </c>
+        <v>6.013155</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>45856</v>
+        <v>45852</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>NSE:DBREALTY-BE</t>
+          <t>NSE:CUPID-EQ</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -11231,29 +11231,29 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="F264" t="n">
-        <v>199.47</v>
+        <v>126.39</v>
       </c>
       <c r="G264" t="n">
-        <v>11170.32</v>
+        <v>17820.99</v>
       </c>
       <c r="H264" t="n">
-        <v>11.17032</v>
+        <v>17.82099</v>
       </c>
       <c r="I264" t="n">
-        <v>5.58516</v>
+        <v>8.910495000000001</v>
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>-1756.67548</v>
+        <v>2633.938515000001</v>
       </c>
       <c r="L264" t="n">
-        <v>-13.47705387351436</v>
+        <v>17.55022321428572</v>
       </c>
       <c r="M264" t="n">
-        <v>230.54</v>
+        <v>107.52</v>
       </c>
     </row>
     <row r="265">
@@ -11261,11 +11261,11 @@
         <v>263</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>45856</v>
+        <v>45852</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>NSE:MARATHON-EQ</t>
+          <t>NSE:RALLIS-EQ</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -11274,22 +11274,22 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F265" t="n">
-        <v>754.7</v>
+        <v>354</v>
       </c>
       <c r="G265" t="n">
-        <v>12075.2</v>
+        <v>12744</v>
       </c>
       <c r="H265" t="n">
-        <v>12.0752</v>
+        <v>12.744</v>
       </c>
       <c r="I265" t="n">
-        <v>6.0376</v>
+        <v>6.372</v>
       </c>
       <c r="J265" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
@@ -11300,11 +11300,11 @@
         <v>264</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>45856</v>
+        <v>45853</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>NSE:TI-EQ</t>
+          <t>NSE:ASHAPURMIN-EQ</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -11313,29 +11313,29 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F266" t="n">
-        <v>396.75</v>
+        <v>530.2</v>
       </c>
       <c r="G266" t="n">
-        <v>13886.25</v>
+        <v>18026.8</v>
       </c>
       <c r="H266" t="n">
-        <v>13.88625</v>
+        <v>18.02680000000001</v>
       </c>
       <c r="I266" t="n">
-        <v>6.943125</v>
+        <v>9.013400000000003</v>
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>1813.170624999999</v>
+        <v>3400.159800000003</v>
       </c>
       <c r="L266" t="n">
-        <v>15.21707564977493</v>
+        <v>23.47461574289708</v>
       </c>
       <c r="M266" t="n">
-        <v>344.35</v>
+        <v>429.4</v>
       </c>
     </row>
     <row r="267">
@@ -11343,50 +11343,54 @@
         <v>265</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>45859</v>
+        <v>45853</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>NSE:EIDPARRY-EQ</t>
+          <t>NSE:PEL-EQ</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E267" t="n">
         <v>11</v>
       </c>
       <c r="F267" t="n">
-        <v>1162.1</v>
+        <v>1323.3</v>
       </c>
       <c r="G267" t="n">
-        <v>12783.1</v>
+        <v>14556.3</v>
       </c>
       <c r="H267" t="n">
-        <v>12.7831</v>
+        <v>14.5563</v>
       </c>
       <c r="I267" t="n">
-        <v>6.39155</v>
-      </c>
-      <c r="J267" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="inlineStr"/>
+        <v>7.27815</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1887.765549999999</v>
+      </c>
+      <c r="L267" t="n">
+        <v>15.09959119770374</v>
+      </c>
+      <c r="M267" t="n">
+        <v>1149.7</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>45859</v>
+        <v>45854</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>NSE:EMIL-EQ</t>
+          <t>NSE:63MOONS-EQ</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -11395,22 +11399,22 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F268" t="n">
-        <v>137.86</v>
+        <v>1093.9</v>
       </c>
       <c r="G268" t="n">
-        <v>13786</v>
+        <v>13126.8</v>
       </c>
       <c r="H268" t="n">
-        <v>13.786</v>
+        <v>13.1268</v>
       </c>
       <c r="I268" t="n">
-        <v>6.893000000000001</v>
+        <v>6.563400000000001</v>
       </c>
       <c r="J268" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
@@ -11421,11 +11425,11 @@
         <v>267</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>45859</v>
+        <v>45854</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>NSE:RAYMONDLSL-EQ</t>
+          <t>NSE:ANANDRATHI-EQ</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -11434,22 +11438,22 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F269" t="n">
-        <v>1199.8</v>
+        <v>2504.5</v>
       </c>
       <c r="G269" t="n">
-        <v>13197.8</v>
+        <v>12522.5</v>
       </c>
       <c r="H269" t="n">
-        <v>13.1978</v>
+        <v>12.5225</v>
       </c>
       <c r="I269" t="n">
-        <v>6.5989</v>
+        <v>6.26125</v>
       </c>
       <c r="J269" t="n">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
@@ -11460,54 +11464,50 @@
         <v>268</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>45859</v>
+        <v>45854</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>NSE:YATHARTH-EQ</t>
+          <t>NSE:GALLANTT-EQ</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F270" t="n">
-        <v>643.2</v>
+        <v>587.4</v>
       </c>
       <c r="G270" t="n">
-        <v>14150.4</v>
+        <v>12335.4</v>
       </c>
       <c r="H270" t="n">
-        <v>14.1504</v>
+        <v>12.3354</v>
       </c>
       <c r="I270" t="n">
-        <v>7.075200000000001</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>2058.874400000001</v>
-      </c>
-      <c r="L270" t="n">
-        <v>17.23320878520005</v>
-      </c>
-      <c r="M270" t="n">
-        <v>548.65</v>
-      </c>
+        <v>6.1677</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>45860</v>
+        <v>45855</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>NSE:MUKANDLTD-EQ</t>
+          <t>NSE:CAMLINFINE-BE</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -11516,19 +11516,19 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="F271" t="n">
-        <v>139.78</v>
+        <v>291.6</v>
       </c>
       <c r="G271" t="n">
-        <v>13139.32</v>
+        <v>13122</v>
       </c>
       <c r="H271" t="n">
-        <v>13.13932</v>
+        <v>13.122</v>
       </c>
       <c r="I271" t="n">
-        <v>6.56966</v>
+        <v>6.561000000000001</v>
       </c>
       <c r="J271" t="n">
         <v>0.66</v>
@@ -11542,11 +11542,11 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>45860</v>
+        <v>45855</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>NSE:PROTEAN-EQ</t>
+          <t>NSE:CUPID-EQ</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -11555,22 +11555,22 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="F272" t="n">
-        <v>789.8</v>
+        <v>133.66</v>
       </c>
       <c r="G272" t="n">
-        <v>14216.4</v>
+        <v>12296.72</v>
       </c>
       <c r="H272" t="n">
-        <v>14.2164</v>
+        <v>12.29672</v>
       </c>
       <c r="I272" t="n">
-        <v>7.1082</v>
+        <v>6.148359999999999</v>
       </c>
       <c r="J272" t="n">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
@@ -11581,11 +11581,11 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>45861</v>
+        <v>45855</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>NSE:MARATHON-EQ</t>
+          <t>NSE:ETERNAL-EQ</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -11594,29 +11594,29 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F273" t="n">
-        <v>716.4</v>
+        <v>259.65</v>
       </c>
       <c r="G273" t="n">
-        <v>11462.4</v>
+        <v>12203.55</v>
       </c>
       <c r="H273" t="n">
-        <v>11.4624</v>
+        <v>12.20355</v>
       </c>
       <c r="I273" t="n">
-        <v>5.7312</v>
+        <v>6.101775</v>
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>-629.993600000001</v>
+        <v>-278.2153250000014</v>
       </c>
       <c r="L273" t="n">
-        <v>-5.074864184444159</v>
+        <v>-2.085375971038551</v>
       </c>
       <c r="M273" t="n">
-        <v>754.7</v>
+        <v>265.18</v>
       </c>
     </row>
     <row r="274">
@@ -11624,11 +11624,11 @@
         <v>272</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>45861</v>
+        <v>45856</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>NSE:RAYMONDLSL-EQ</t>
+          <t>NSE:DBREALTY-BE</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -11637,29 +11637,29 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F274" t="n">
-        <v>1116.9</v>
+        <v>199.47</v>
       </c>
       <c r="G274" t="n">
-        <v>12285.9</v>
+        <v>11170.32</v>
       </c>
       <c r="H274" t="n">
-        <v>12.2859</v>
+        <v>11.17032</v>
       </c>
       <c r="I274" t="n">
-        <v>6.142950000000001</v>
+        <v>5.58516</v>
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>-930.3288499999985</v>
+        <v>-1756.67548</v>
       </c>
       <c r="L274" t="n">
-        <v>-6.909484914152348</v>
+        <v>-13.47705387351436</v>
       </c>
       <c r="M274" t="n">
-        <v>1199.8</v>
+        <v>230.54</v>
       </c>
     </row>
     <row r="275">
@@ -11667,11 +11667,11 @@
         <v>273</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>45863</v>
+        <v>45856</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>NSE:AUBANK-EQ</t>
+          <t>NSE:MARATHON-EQ</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -11680,22 +11680,22 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F275" t="n">
-        <v>733.4</v>
+        <v>754.7</v>
       </c>
       <c r="G275" t="n">
-        <v>12467.8</v>
+        <v>12075.2</v>
       </c>
       <c r="H275" t="n">
-        <v>12.4678</v>
+        <v>12.0752</v>
       </c>
       <c r="I275" t="n">
-        <v>6.233899999999999</v>
+        <v>6.0376</v>
       </c>
       <c r="J275" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
@@ -11706,11 +11706,11 @@
         <v>274</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>45863</v>
+        <v>45856</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>NSE:BAJAJCON-EQ</t>
+          <t>NSE:TI-EQ</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -11719,29 +11719,29 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F276" t="n">
-        <v>234.35</v>
+        <v>396.75</v>
       </c>
       <c r="G276" t="n">
-        <v>13357.95</v>
+        <v>13886.25</v>
       </c>
       <c r="H276" t="n">
-        <v>13.35795</v>
+        <v>13.88625</v>
       </c>
       <c r="I276" t="n">
-        <v>6.678974999999999</v>
+        <v>6.943125</v>
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>748.3230749999994</v>
+        <v>1813.170624999999</v>
       </c>
       <c r="L276" t="n">
-        <v>6.103137592248829</v>
+        <v>15.21707564977493</v>
       </c>
       <c r="M276" t="n">
-        <v>220.87</v>
+        <v>344.35</v>
       </c>
     </row>
     <row r="277">
@@ -11749,54 +11749,50 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>45863</v>
+        <v>45859</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>NSE:CAMLINFINE-BE</t>
+          <t>NSE:EIDPARRY-EQ</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F277" t="n">
-        <v>268.8</v>
+        <v>1162.1</v>
       </c>
       <c r="G277" t="n">
-        <v>11827.2</v>
+        <v>12783.1</v>
       </c>
       <c r="H277" t="n">
-        <v>11.8272</v>
+        <v>12.7831</v>
       </c>
       <c r="I277" t="n">
-        <v>5.913600000000001</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>-1020.940800000001</v>
-      </c>
-      <c r="L277" t="n">
-        <v>-7.818930041152266</v>
-      </c>
-      <c r="M277" t="n">
-        <v>291.6</v>
-      </c>
+        <v>6.39155</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>45863</v>
+        <v>45859</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>NSE:ELECTCAST-EQ</t>
+          <t>NSE:EMIL-EQ</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -11805,22 +11801,22 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="F278" t="n">
-        <v>115.58</v>
+        <v>137.86</v>
       </c>
       <c r="G278" t="n">
-        <v>14563.08</v>
+        <v>13786</v>
       </c>
       <c r="H278" t="n">
-        <v>14.56308</v>
+        <v>13.786</v>
       </c>
       <c r="I278" t="n">
-        <v>7.28154</v>
+        <v>6.893000000000001</v>
       </c>
       <c r="J278" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
@@ -11831,11 +11827,11 @@
         <v>277</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>45866</v>
+        <v>45859</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>NSE:ANANDRATHI-EQ</t>
+          <t>NSE:RAYMONDLSL-EQ</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -11844,22 +11840,22 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F279" t="n">
-        <v>2643.6</v>
+        <v>1199.8</v>
       </c>
       <c r="G279" t="n">
-        <v>13218</v>
+        <v>13197.8</v>
       </c>
       <c r="H279" t="n">
-        <v>13.218</v>
+        <v>13.1978</v>
       </c>
       <c r="I279" t="n">
-        <v>6.609</v>
+        <v>6.5989</v>
       </c>
       <c r="J279" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
@@ -11870,11 +11866,11 @@
         <v>278</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>45866</v>
+        <v>45859</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>NSE:DIXON-EQ</t>
+          <t>NSE:YATHARTH-EQ</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -11883,29 +11879,29 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F280" t="n">
-        <v>16744</v>
+        <v>643.2</v>
       </c>
       <c r="G280" t="n">
-        <v>16744</v>
+        <v>14150.4</v>
       </c>
       <c r="H280" t="n">
-        <v>16.744</v>
+        <v>14.1504</v>
       </c>
       <c r="I280" t="n">
-        <v>8.372</v>
+        <v>7.075200000000001</v>
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>1285.884</v>
+        <v>2058.874400000001</v>
       </c>
       <c r="L280" t="n">
-        <v>8.49478390461997</v>
+        <v>17.23320878520005</v>
       </c>
       <c r="M280" t="n">
-        <v>15433</v>
+        <v>548.65</v>
       </c>
     </row>
     <row r="281">
@@ -11913,50 +11909,46 @@
         <v>279</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>45866</v>
+        <v>45860</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>NSE:EMIL-EQ</t>
+          <t>NSE:MANGCHEFER-EQ</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F281" t="n">
-        <v>128.26</v>
+        <v>307.8</v>
       </c>
       <c r="G281" t="n">
-        <v>12826</v>
+        <v>13851</v>
       </c>
       <c r="H281" t="n">
-        <v>12.826</v>
+        <v>13.851</v>
       </c>
       <c r="I281" t="n">
-        <v>6.413</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>-979.2390000000023</v>
-      </c>
-      <c r="L281" t="n">
-        <v>-6.963586246917178</v>
-      </c>
-      <c r="M281" t="n">
-        <v>137.86</v>
-      </c>
+        <v>6.9255</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>45866</v>
+        <v>45860</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -11965,88 +11957,80 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E282" t="n">
         <v>94</v>
       </c>
       <c r="F282" t="n">
-        <v>131.5</v>
+        <v>139.78</v>
       </c>
       <c r="G282" t="n">
-        <v>12361</v>
+        <v>13139.32</v>
       </c>
       <c r="H282" t="n">
-        <v>12.361</v>
+        <v>13.13932</v>
       </c>
       <c r="I282" t="n">
-        <v>6.1805</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>-796.8615000000002</v>
-      </c>
-      <c r="L282" t="n">
-        <v>-5.923594219487767</v>
-      </c>
-      <c r="M282" t="n">
-        <v>139.78</v>
-      </c>
+        <v>6.56966</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>45866</v>
+        <v>45860</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>NSE:SIGNPOST-EQ</t>
+          <t>NSE:PROTEAN-EQ</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F283" t="n">
-        <v>225.54</v>
+        <v>789.8</v>
       </c>
       <c r="G283" t="n">
-        <v>12630.24</v>
+        <v>14216.4</v>
       </c>
       <c r="H283" t="n">
-        <v>12.63024</v>
+        <v>14.2164</v>
       </c>
       <c r="I283" t="n">
-        <v>6.31512</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>-249.1053600000008</v>
-      </c>
-      <c r="L283" t="n">
-        <v>-1.789679947746577</v>
-      </c>
-      <c r="M283" t="n">
-        <v>229.65</v>
-      </c>
+        <v>7.1082</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>45867</v>
+        <v>45861</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>NSE:360ONE-EQ</t>
+          <t>NSE:COCHINSHIP-EQ</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -12055,19 +12039,19 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F284" t="n">
-        <v>1082.4</v>
+        <v>1870.7</v>
       </c>
       <c r="G284" t="n">
-        <v>11906.4</v>
+        <v>11224.2</v>
       </c>
       <c r="H284" t="n">
-        <v>11.9064</v>
+        <v>11.2242</v>
       </c>
       <c r="I284" t="n">
-        <v>5.953200000000001</v>
+        <v>5.612100000000001</v>
       </c>
       <c r="J284" t="n">
         <v>0.61</v>
@@ -12081,54 +12065,50 @@
         <v>283</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>45867</v>
+        <v>45861</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>NSE:GALLANTT-EQ</t>
+          <t>NSE:GLENMARK-EQ</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F285" t="n">
-        <v>681</v>
+        <v>2138.8</v>
       </c>
       <c r="G285" t="n">
-        <v>14301</v>
+        <v>12832.8</v>
       </c>
       <c r="H285" t="n">
-        <v>14.301</v>
+        <v>12.8328</v>
       </c>
       <c r="I285" t="n">
-        <v>7.1505</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>1944.1485</v>
-      </c>
-      <c r="L285" t="n">
-        <v>15.93462717058223</v>
-      </c>
-      <c r="M285" t="n">
-        <v>587.4</v>
-      </c>
+        <v>6.4164</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>45867</v>
+        <v>45861</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>NSE:ORIENTCEM-EQ</t>
+          <t>NSE:MARATHON-EQ</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -12137,29 +12117,29 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F286" t="n">
-        <v>244.15</v>
+        <v>716.4</v>
       </c>
       <c r="G286" t="n">
-        <v>12939.95</v>
+        <v>11462.4</v>
       </c>
       <c r="H286" t="n">
-        <v>12.93995</v>
+        <v>11.4624</v>
       </c>
       <c r="I286" t="n">
-        <v>6.469975000000001</v>
+        <v>5.7312</v>
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>486.7400750000006</v>
+        <v>-629.993600000001</v>
       </c>
       <c r="L286" t="n">
-        <v>4.070758738277925</v>
+        <v>-5.074864184444159</v>
       </c>
       <c r="M286" t="n">
-        <v>234.6</v>
+        <v>754.7</v>
       </c>
     </row>
     <row r="287">
@@ -12167,50 +12147,54 @@
         <v>285</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>45867</v>
+        <v>45861</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>NSE:SYRMA-EQ</t>
+          <t>NSE:RAYMONDLSL-EQ</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F287" t="n">
-        <v>746.25</v>
+        <v>1116.9</v>
       </c>
       <c r="G287" t="n">
-        <v>12686.25</v>
+        <v>12285.9</v>
       </c>
       <c r="H287" t="n">
-        <v>12.68625</v>
+        <v>12.2859</v>
       </c>
       <c r="I287" t="n">
-        <v>6.343125000000001</v>
-      </c>
-      <c r="J287" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="inlineStr"/>
+        <v>6.142950000000001</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>-930.3288499999985</v>
+      </c>
+      <c r="L287" t="n">
+        <v>-6.909484914152348</v>
+      </c>
+      <c r="M287" t="n">
+        <v>1199.8</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>45868</v>
+        <v>45863</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>NSE:ASTRAMICRO-EQ</t>
+          <t>NSE:AUBANK-EQ</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -12219,22 +12203,22 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>967.1</v>
+        <v>733.4</v>
       </c>
       <c r="G288" t="n">
-        <v>11605.2</v>
+        <v>12467.8</v>
       </c>
       <c r="H288" t="n">
-        <v>11.6052</v>
+        <v>12.4678</v>
       </c>
       <c r="I288" t="n">
-        <v>5.802600000000001</v>
+        <v>6.233899999999999</v>
       </c>
       <c r="J288" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
@@ -12245,11 +12229,11 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>45868</v>
+        <v>45863</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>NSE:VINCOFE-EQ</t>
+          <t>NSE:CAMLINFINE-BE</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -12258,29 +12242,701 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F289" t="n">
-        <v>153.27</v>
+        <v>268.8</v>
       </c>
       <c r="G289" t="n">
-        <v>15327</v>
+        <v>12096</v>
       </c>
       <c r="H289" t="n">
-        <v>15.327</v>
+        <v>12.096</v>
       </c>
       <c r="I289" t="n">
-        <v>7.663500000000001</v>
+        <v>6.048</v>
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
+        <v>-1044.144</v>
+      </c>
+      <c r="L289" t="n">
+        <v>-7.818930041152266</v>
+      </c>
+      <c r="M289" t="n">
+        <v>291.6</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>NSE:ELECTCAST-EQ</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>126</v>
+      </c>
+      <c r="F290" t="n">
+        <v>115.58</v>
+      </c>
+      <c r="G290" t="n">
+        <v>14563.08</v>
+      </c>
+      <c r="H290" t="n">
+        <v>14.56308</v>
+      </c>
+      <c r="I290" t="n">
+        <v>7.28154</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>NSE:63MOONS-EQ</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>12</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1005</v>
+      </c>
+      <c r="G291" t="n">
+        <v>12060</v>
+      </c>
+      <c r="H291" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="I291" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>-1084.890000000001</v>
+      </c>
+      <c r="L291" t="n">
+        <v>-8.126885455708939</v>
+      </c>
+      <c r="M291" t="n">
+        <v>1093.9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>NSE:COCHINSHIP-EQ</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>6</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1753.4</v>
+      </c>
+      <c r="G292" t="n">
+        <v>10520.4</v>
+      </c>
+      <c r="H292" t="n">
+        <v>10.5204</v>
+      </c>
+      <c r="I292" t="n">
+        <v>5.260200000000001</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>-719.5805999999998</v>
+      </c>
+      <c r="L292" t="n">
+        <v>-6.270380071630938</v>
+      </c>
+      <c r="M292" t="n">
+        <v>1870.7</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>NSE:DIXON-EQ</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>1</v>
+      </c>
+      <c r="F293" t="n">
+        <v>16744</v>
+      </c>
+      <c r="G293" t="n">
+        <v>16744</v>
+      </c>
+      <c r="H293" t="n">
+        <v>16.744</v>
+      </c>
+      <c r="I293" t="n">
+        <v>8.372</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1285.884</v>
+      </c>
+      <c r="L293" t="n">
+        <v>8.49478390461997</v>
+      </c>
+      <c r="M293" t="n">
+        <v>15433</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>NSE:EMIL-EQ</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>100</v>
+      </c>
+      <c r="F294" t="n">
+        <v>128.26</v>
+      </c>
+      <c r="G294" t="n">
+        <v>12826</v>
+      </c>
+      <c r="H294" t="n">
+        <v>12.826</v>
+      </c>
+      <c r="I294" t="n">
+        <v>6.413</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>-979.2390000000023</v>
+      </c>
+      <c r="L294" t="n">
+        <v>-6.963586246917178</v>
+      </c>
+      <c r="M294" t="n">
+        <v>137.86</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>NSE:MUKANDLTD-EQ</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>94</v>
+      </c>
+      <c r="F295" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="G295" t="n">
+        <v>12361</v>
+      </c>
+      <c r="H295" t="n">
+        <v>12.361</v>
+      </c>
+      <c r="I295" t="n">
+        <v>6.1805</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>-796.8615000000002</v>
+      </c>
+      <c r="L295" t="n">
+        <v>-5.923594219487767</v>
+      </c>
+      <c r="M295" t="n">
+        <v>139.78</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>NSE:SIGNPOST-EQ</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>56</v>
+      </c>
+      <c r="F296" t="n">
+        <v>225.54</v>
+      </c>
+      <c r="G296" t="n">
+        <v>12630.24</v>
+      </c>
+      <c r="H296" t="n">
+        <v>12.63024</v>
+      </c>
+      <c r="I296" t="n">
+        <v>6.31512</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>-249.1053600000008</v>
+      </c>
+      <c r="L296" t="n">
+        <v>-1.789679947746577</v>
+      </c>
+      <c r="M296" t="n">
+        <v>229.65</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>NSE:360ONE-EQ</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>11</v>
+      </c>
+      <c r="F297" t="n">
+        <v>1082.4</v>
+      </c>
+      <c r="G297" t="n">
+        <v>11906.4</v>
+      </c>
+      <c r="H297" t="n">
+        <v>11.9064</v>
+      </c>
+      <c r="I297" t="n">
+        <v>5.953200000000001</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>NSE:GALLANTT-EQ</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>21</v>
+      </c>
+      <c r="F298" t="n">
+        <v>681</v>
+      </c>
+      <c r="G298" t="n">
+        <v>14301</v>
+      </c>
+      <c r="H298" t="n">
+        <v>14.301</v>
+      </c>
+      <c r="I298" t="n">
+        <v>7.1505</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1944.1485</v>
+      </c>
+      <c r="L298" t="n">
+        <v>15.93462717058223</v>
+      </c>
+      <c r="M298" t="n">
+        <v>587.4</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>NSE:ORIENTCEM-EQ</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>53</v>
+      </c>
+      <c r="F299" t="n">
+        <v>244.15</v>
+      </c>
+      <c r="G299" t="n">
+        <v>12939.95</v>
+      </c>
+      <c r="H299" t="n">
+        <v>12.93995</v>
+      </c>
+      <c r="I299" t="n">
+        <v>6.469975000000001</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>486.7400750000006</v>
+      </c>
+      <c r="L299" t="n">
+        <v>4.070758738277925</v>
+      </c>
+      <c r="M299" t="n">
+        <v>234.6</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>NSE:SYRMA-EQ</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>746.25</v>
+      </c>
+      <c r="G300" t="n">
+        <v>12686.25</v>
+      </c>
+      <c r="H300" t="n">
+        <v>12.68625</v>
+      </c>
+      <c r="I300" t="n">
+        <v>6.343125000000001</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>NSE:ASTRAMICRO-EQ</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>12</v>
+      </c>
+      <c r="F301" t="n">
+        <v>967.1</v>
+      </c>
+      <c r="G301" t="n">
+        <v>11605.2</v>
+      </c>
+      <c r="H301" t="n">
+        <v>11.6052</v>
+      </c>
+      <c r="I301" t="n">
+        <v>5.802600000000001</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>NSE:GLAND-EQ</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>7</v>
+      </c>
+      <c r="F302" t="n">
+        <v>2060.7</v>
+      </c>
+      <c r="G302" t="n">
+        <v>14424.9</v>
+      </c>
+      <c r="H302" t="n">
+        <v>14.4249</v>
+      </c>
+      <c r="I302" t="n">
+        <v>7.212449999999999</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1260.062649999999</v>
+      </c>
+      <c r="L302" t="n">
+        <v>9.75181082232637</v>
+      </c>
+      <c r="M302" t="n">
+        <v>1877.6</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>NSE:VINCOFE-EQ</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>100</v>
+      </c>
+      <c r="F303" t="n">
+        <v>153.27</v>
+      </c>
+      <c r="G303" t="n">
+        <v>15327</v>
+      </c>
+      <c r="H303" t="n">
+        <v>15.327</v>
+      </c>
+      <c r="I303" t="n">
+        <v>7.663500000000001</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="n">
         <v>1530.0095</v>
       </c>
-      <c r="L289" t="n">
+      <c r="L303" t="n">
         <v>11.27486568897924</v>
       </c>
-      <c r="M289" t="n">
+      <c r="M303" t="n">
         <v>137.74</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>NSE:BAJAJCON-EQ</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>51</v>
+      </c>
+      <c r="F304" t="n">
+        <v>223.18</v>
+      </c>
+      <c r="G304" t="n">
+        <v>11382.18</v>
+      </c>
+      <c r="H304" t="n">
+        <v>11.38218</v>
+      </c>
+      <c r="I304" t="n">
+        <v>5.69109</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>-661.2032699999997</v>
+      </c>
+      <c r="L304" t="n">
+        <v>-5.356006954751705</v>
+      </c>
+      <c r="M304" t="n">
+        <v>235.81</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>NSE:RAYMOND-EQ</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>20</v>
+      </c>
+      <c r="F305" t="n">
+        <v>668.6</v>
+      </c>
+      <c r="G305" t="n">
+        <v>13372</v>
+      </c>
+      <c r="H305" t="n">
+        <v>13.372</v>
+      </c>
+      <c r="I305" t="n">
+        <v>6.686</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>-516.0579999999991</v>
+      </c>
+      <c r="L305" t="n">
+        <v>-3.576579175079313</v>
+      </c>
+      <c r="M305" t="n">
+        <v>693.4</v>
       </c>
     </row>
   </sheetData>
